--- a/data_clean/Telenor 11.12.2020.xlsx
+++ b/data_clean/Telenor 11.12.2020.xlsx
@@ -1551,7 +1551,7 @@
         <v>0.7899917366485567</v>
       </c>
       <c r="K2">
-        <v>42.98152183226654</v>
+        <v>-0.07018478167733497</v>
       </c>
       <c r="L2">
         <v>-0.004948049827965633</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L3">
         <v>-0.01039414680375726</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1693,7 +1693,7 @@
         <v>3.157894736842106</v>
       </c>
       <c r="K4">
-        <v>75.9493670886076</v>
+        <v>0.259493670886076</v>
       </c>
       <c r="L4">
         <v>0.003977677729211424</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.00054519681605</v>
+        <v>0.000545196816050364</v>
       </c>
       <c r="V4">
-        <v>1.00054519681605</v>
+        <v>0.000545196816050364</v>
       </c>
       <c r="W4">
-        <v>1.00196335078534</v>
+        <v>0.001963350785340268</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1764,7 +1764,7 @@
         <v>1.498028909329829</v>
       </c>
       <c r="K5">
-        <v>59.96843766438717</v>
+        <v>0.09968437664387164</v>
       </c>
       <c r="L5">
         <v>0.006047412703898918</v>
@@ -1794,13 +1794,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000108979947689</v>
+        <v>0.000108979947689436</v>
       </c>
       <c r="V5">
-        <v>1.000108979947689</v>
+        <v>0.000108979947689436</v>
       </c>
       <c r="W5">
-        <v>0.999346832135859</v>
+        <v>-0.0006531678641410466</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1835,7 +1835,7 @@
         <v>0.5631971710132535</v>
       </c>
       <c r="K6">
-        <v>36.02854338894389</v>
+        <v>-0.139714566110561</v>
       </c>
       <c r="L6">
         <v>0.002191542576338622</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.9996730957829357</v>
+        <v>-0.0003269042170642722</v>
       </c>
       <c r="V6">
-        <v>0.9996730957829357</v>
+        <v>-0.0003269042170642722</v>
       </c>
       <c r="W6">
-        <v>0.9980392156862744</v>
+        <v>-0.001960784313725594</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1906,7 +1906,7 @@
         <v>0.3916739077262023</v>
       </c>
       <c r="K7">
-        <v>28.14408645241772</v>
+        <v>-0.2185591354758227</v>
       </c>
       <c r="L7">
         <v>-0.003043408457222917</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9995639851754959</v>
+        <v>-0.0004360148245040607</v>
       </c>
       <c r="V7">
-        <v>0.9995639851754959</v>
+        <v>-0.0004360148245040607</v>
       </c>
       <c r="W7">
-        <v>0.9986902423051737</v>
+        <v>-0.00130975769482633</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1977,7 +1977,7 @@
         <v>0.3916739077262023</v>
       </c>
       <c r="K8">
-        <v>28.14408645241772</v>
+        <v>-0.2185591354758227</v>
       </c>
       <c r="L8">
         <v>-0.007119353639764094</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9996884249883158</v>
+        <v>-0.0003115750116842175</v>
       </c>
       <c r="V8">
-        <v>0.9996884249883158</v>
+        <v>-0.0003115750116842175</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2048,7 +2048,7 @@
         <v>0.7291285099651402</v>
       </c>
       <c r="K9">
-        <v>42.16739853418064</v>
+        <v>-0.07832601465819361</v>
       </c>
       <c r="L9">
         <v>-0.008751077087043126</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9999298737727911</v>
+        <v>-7.012622720892203E-05</v>
       </c>
       <c r="V9">
-        <v>0.9999298737727911</v>
+        <v>-7.012622720892203E-05</v>
       </c>
       <c r="W9">
-        <v>1.001311475409836</v>
+        <v>0.001311475409836005</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2119,7 +2119,7 @@
         <v>0.9067361953541053</v>
       </c>
       <c r="K10">
-        <v>47.55436004012672</v>
+        <v>-0.02445639959873275</v>
       </c>
       <c r="L10">
         <v>-0.008724222482641117</v>
@@ -2149,13 +2149,13 @@
         <v>-0.01527777777778283</v>
       </c>
       <c r="U10">
-        <v>1.000018182148766</v>
+        <v>1.818214876636581E-05</v>
       </c>
       <c r="V10">
-        <v>1.000018182148766</v>
+        <v>1.818214876636581E-05</v>
       </c>
       <c r="W10">
-        <v>1.000654878847413</v>
+        <v>0.0006548788474134426</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2190,7 +2190,7 @@
         <v>0.8292223711380148</v>
       </c>
       <c r="K11">
-        <v>45.33196095902382</v>
+        <v>-0.04668039040976174</v>
       </c>
       <c r="L11">
         <v>-0.008243152144700382</v>
@@ -2220,13 +2220,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U11">
-        <v>0.9999818181818183</v>
+        <v>-1.818181818169506E-05</v>
       </c>
       <c r="V11">
-        <v>0.9999818181818183</v>
+        <v>-1.818181818169506E-05</v>
       </c>
       <c r="W11">
-        <v>0.9996727748691099</v>
+        <v>-0.0003272251308901186</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2261,7 +2261,7 @@
         <v>0.8292223711380149</v>
       </c>
       <c r="K12">
-        <v>45.33196095902383</v>
+        <v>-0.04668039040976169</v>
       </c>
       <c r="L12">
         <v>-0.007578457351029081</v>
@@ -2291,13 +2291,13 @@
         <v>-0.06022727272727479</v>
       </c>
       <c r="U12">
-        <v>0.9999851236964639</v>
+        <v>-1.487630353613767E-05</v>
       </c>
       <c r="V12">
-        <v>0.9999851236964639</v>
+        <v>-1.487630353613767E-05</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2332,7 +2332,7 @@
         <v>0.6013703048625909</v>
       </c>
       <c r="K13">
-        <v>37.55348172977348</v>
+        <v>-0.1244651827022652</v>
       </c>
       <c r="L13">
         <v>-0.00759457136589439</v>
@@ -2362,13 +2362,13 @@
         <v>-0.09791666666666288</v>
       </c>
       <c r="U13">
-        <v>0.9998785083804422</v>
+        <v>-0.0001214916195577675</v>
       </c>
       <c r="V13">
-        <v>0.9998785083804422</v>
+        <v>-0.0001214916195577675</v>
       </c>
       <c r="W13">
-        <v>0.9986906710310967</v>
+        <v>-0.001309328968903345</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2403,7 +2403,7 @@
         <v>0.7459903058647109</v>
       </c>
       <c r="K14">
-        <v>42.72591338903541</v>
+        <v>-0.07274086610964586</v>
       </c>
       <c r="L14">
         <v>-0.007535800004138879</v>
@@ -2433,13 +2433,13 @@
         <v>-0.09615384615383959</v>
       </c>
       <c r="U14">
-        <v>0.9999475443407687</v>
+        <v>-5.245565923128748E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999475443407687</v>
+        <v>-5.245565923128748E-05</v>
       </c>
       <c r="W14">
-        <v>1.000655522779416</v>
+        <v>0.0006555227794164953</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2474,7 +2474,7 @@
         <v>0.6474308800521386</v>
       </c>
       <c r="K15">
-        <v>39.29942602700567</v>
+        <v>-0.1070057397299433</v>
       </c>
       <c r="L15">
         <v>-0.007727697066247367</v>
@@ -2504,13 +2504,13 @@
         <v>-0.0758928571428612</v>
       </c>
       <c r="U15">
-        <v>0.9999082727213865</v>
+        <v>-9.172727861350705E-05</v>
       </c>
       <c r="V15">
-        <v>0.9999082727213865</v>
+        <v>-9.172727861350705E-05</v>
       </c>
       <c r="W15">
-        <v>0.9993449066491975</v>
+        <v>-0.0006550933508024936</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2545,7 +2545,7 @@
         <v>0.5683842418522606</v>
       </c>
       <c r="K16">
-        <v>36.24011429629</v>
+        <v>-0.1375988570371001</v>
       </c>
       <c r="L16">
         <v>-0.00829662310686931</v>
@@ -2575,13 +2575,13 @@
         <v>-0.06333333333330415</v>
       </c>
       <c r="U16">
-        <v>0.9998768463307219</v>
+        <v>-0.0001231536692780644</v>
       </c>
       <c r="V16">
-        <v>0.9998768463307219</v>
+        <v>-0.0001231536692780644</v>
       </c>
       <c r="W16">
-        <v>0.9993444772205833</v>
+        <v>-0.0006555227794167173</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2616,7 +2616,7 @@
         <v>0.8254216805734608</v>
       </c>
       <c r="K17">
-        <v>45.21813723140137</v>
+        <v>-0.04781862768598627</v>
       </c>
       <c r="L17">
         <v>-0.008382379267870372</v>
@@ -2646,13 +2646,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U17">
-        <v>0.9999740799755534</v>
+        <v>-2.592002444656849E-05</v>
       </c>
       <c r="V17">
-        <v>0.9998908630549614</v>
+        <v>-0.0001091369450385571</v>
       </c>
       <c r="W17">
-        <v>1.001311905542801</v>
+        <v>0.001311905542801028</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2687,7 +2687,7 @@
         <v>0.7270625743145976</v>
       </c>
       <c r="K18">
-        <v>42.09821839276089</v>
+        <v>-0.07901781607239111</v>
       </c>
       <c r="L18">
         <v>-0.008449778985165891</v>
@@ -2717,13 +2717,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U18">
-        <v>0.9999386088771565</v>
+        <v>-6.139112284353487E-05</v>
       </c>
       <c r="V18">
-        <v>0.9998908511427886</v>
+        <v>-0.0001091488572113608</v>
       </c>
       <c r="W18">
-        <v>0.9993449066491975</v>
+        <v>-0.0006550933508024936</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2758,7 +2758,7 @@
         <v>0.7270625743145976</v>
       </c>
       <c r="K19">
-        <v>42.09821839276089</v>
+        <v>-0.07901781607239111</v>
       </c>
       <c r="L19">
         <v>-0.008464066615737283</v>
@@ -2788,13 +2788,13 @@
         <v>-0.08437499999999432</v>
       </c>
       <c r="U19">
-        <v>0.9999454267627155</v>
+        <v>-5.457323728452756E-05</v>
       </c>
       <c r="V19">
-        <v>0.9997598463016328</v>
+        <v>-0.0002401536983671626</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2829,7 +2829,7 @@
         <v>0.6820360108994598</v>
       </c>
       <c r="K20">
-        <v>40.54824073206046</v>
+        <v>-0.09451759267939536</v>
       </c>
       <c r="L20">
         <v>-0.008546603107740275</v>
@@ -2859,13 +2859,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U20">
-        <v>0.9999339340546969</v>
+        <v>-6.60659453031176E-05</v>
       </c>
       <c r="V20">
-        <v>0.9997816260127094</v>
+        <v>-0.0002183739872906321</v>
       </c>
       <c r="W20">
-        <v>0.9996722386102916</v>
+        <v>-0.0003277613897083587</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2900,7 +2900,7 @@
         <v>0.4902737004008899</v>
       </c>
       <c r="K21">
-        <v>32.89823206763994</v>
+        <v>-0.1710176793236006</v>
       </c>
       <c r="L21">
         <v>-0.009422301884326474</v>
@@ -2930,13 +2930,13 @@
         <v>-0.07187499999997726</v>
       </c>
       <c r="U21">
-        <v>0.9998422930419345</v>
+        <v>-0.0001577069580654955</v>
       </c>
       <c r="V21">
-        <v>0.9997815783150953</v>
+        <v>-0.0002184216849047127</v>
       </c>
       <c r="W21">
-        <v>0.9980327868852459</v>
+        <v>-0.001967213114754118</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2971,7 +2971,7 @@
         <v>0.4902737004008899</v>
       </c>
       <c r="K22">
-        <v>32.89823206763994</v>
+        <v>-0.1710176793236006</v>
       </c>
       <c r="L22">
         <v>-0.01064803894377936</v>
@@ -3001,13 +3001,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U22">
-        <v>0.9998572902459052</v>
+        <v>-0.0001427097540948052</v>
       </c>
       <c r="V22">
-        <v>0.9998689183579839</v>
+        <v>-0.0001310816420161398</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3042,7 +3042,7 @@
         <v>0.749887331508414</v>
       </c>
       <c r="K23">
-        <v>42.85346364911427</v>
+        <v>-0.07146536350885724</v>
       </c>
       <c r="L23">
         <v>-0.01130204213886276</v>
@@ -3072,13 +3072,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U23">
-        <v>0.9999446947362153</v>
+        <v>-5.530526378472178E-05</v>
       </c>
       <c r="V23">
-        <v>0.9999781501955558</v>
+        <v>-2.184980444419615E-05</v>
       </c>
       <c r="W23">
-        <v>1.001642575558476</v>
+        <v>0.00164257555847569</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3113,7 +3113,7 @@
         <v>0.7110258568738266</v>
       </c>
       <c r="K24">
-        <v>41.55552962670737</v>
+        <v>-0.08444470373292634</v>
       </c>
       <c r="L24">
         <v>-0.01166156787394297</v>
@@ -3143,13 +3143,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U24">
-        <v>0.9999352578163238</v>
+        <v>-6.47421836762474E-05</v>
       </c>
       <c r="V24">
-        <v>0.9998688983087881</v>
+        <v>-0.0001311016912118879</v>
       </c>
       <c r="W24">
-        <v>0.9996720236142999</v>
+        <v>-0.0003279763857001461</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3184,7 +3184,7 @@
         <v>0.7110258568738266</v>
       </c>
       <c r="K25">
-        <v>41.55552962670737</v>
+        <v>-0.08444470373292634</v>
       </c>
       <c r="L25">
         <v>-0.01177885247762757</v>
@@ -3214,13 +3214,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U25">
-        <v>0.9999406491557935</v>
+        <v>-5.935084420649606E-05</v>
       </c>
       <c r="V25">
-        <v>0.9998251748251747</v>
+        <v>-0.0001748251748252549</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3255,7 +3255,7 @@
         <v>0.6377809263201899</v>
       </c>
       <c r="K26">
-        <v>38.94177274082519</v>
+        <v>-0.1105822725917481</v>
       </c>
       <c r="L26">
         <v>-0.01195014293291968</v>
@@ -3285,13 +3285,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U26">
-        <v>0.9999191830939771</v>
+        <v>-8.081690602290692E-05</v>
       </c>
       <c r="V26">
-        <v>0.9998032872879874</v>
+        <v>-0.0001967127120126033</v>
       </c>
       <c r="W26">
-        <v>0.9993438320209974</v>
+        <v>-0.0006561679790025865</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3326,7 +3326,7 @@
         <v>0.6049804667379942</v>
       </c>
       <c r="K27">
-        <v>37.6939457691702</v>
+        <v>-0.123060542308298</v>
       </c>
       <c r="L27">
         <v>-0.01222005382623898</v>
@@ -3356,13 +3356,13 @@
         <v>-0.125</v>
       </c>
       <c r="U27">
-        <v>0.9999127913424487</v>
+        <v>-8.720865755129648E-05</v>
       </c>
       <c r="V27">
-        <v>0.9997813873160921</v>
+        <v>-0.0002186126839078817</v>
       </c>
       <c r="W27">
-        <v>0.9996717005909389</v>
+        <v>-0.0003282994090610947</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3397,7 +3397,7 @@
         <v>0.5204547222386714</v>
       </c>
       <c r="K28">
-        <v>34.23020196697273</v>
+        <v>-0.1576979803302727</v>
       </c>
       <c r="L28">
         <v>-0.01285396920743161</v>
@@ -3427,13 +3427,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U28">
-        <v>0.9998828340711052</v>
+        <v>-0.0001171659288947691</v>
       </c>
       <c r="V28">
-        <v>0.9998032055627227</v>
+        <v>-0.0001967944372772701</v>
       </c>
       <c r="W28">
-        <v>0.9990147783251231</v>
+        <v>-0.0009852216748769127</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3468,7 +3468,7 @@
         <v>0.5694780504208103</v>
       </c>
       <c r="K29">
-        <v>36.28455015781337</v>
+        <v>-0.1371544984218663</v>
       </c>
       <c r="L29">
         <v>-0.01349135363926816</v>
@@ -3498,13 +3498,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U29">
-        <v>0.9999028949444679</v>
+        <v>-9.710505553206517E-05</v>
       </c>
       <c r="V29">
-        <v>0.9997812964744993</v>
+        <v>-0.0002187035255006853</v>
       </c>
       <c r="W29">
-        <v>1.000328731097962</v>
+        <v>0.0003287310979618319</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3539,7 +3539,7 @@
         <v>0.5415330479661589</v>
       </c>
       <c r="K30">
-        <v>35.12951270688859</v>
+        <v>-0.1487048729311141</v>
       </c>
       <c r="L30">
         <v>-0.01416056738709601</v>
@@ -3569,13 +3569,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U30">
-        <v>0.9998982809480217</v>
+        <v>-0.0001017190519783107</v>
       </c>
       <c r="V30">
-        <v>0.9998031237695234</v>
+        <v>-0.0001968762304765947</v>
       </c>
       <c r="W30">
-        <v>0.9996713769306604</v>
+        <v>-0.000328623069339562</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3610,7 +3610,7 @@
         <v>0.5415330479661589</v>
       </c>
       <c r="K31">
-        <v>35.12951270688859</v>
+        <v>-0.1487048729311141</v>
       </c>
       <c r="L31">
         <v>-0.01475227258025224</v>
@@ -3640,13 +3640,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U31">
-        <v>0.9999050525601899</v>
+        <v>-9.494743981008913E-05</v>
       </c>
       <c r="V31">
-        <v>0.9998468438901653</v>
+        <v>-0.0001531561098346845</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3681,7 +3681,7 @@
         <v>0.541533047966159</v>
       </c>
       <c r="K32">
-        <v>35.12951270688859</v>
+        <v>-0.1487048729311141</v>
       </c>
       <c r="L32">
         <v>-0.0152042223506802</v>
@@ -3711,13 +3711,13 @@
         <v>-0.125</v>
       </c>
       <c r="U32">
-        <v>0.999825159541918</v>
+        <v>-0.0001748404580820262</v>
       </c>
       <c r="V32">
-        <v>0.999759289246794</v>
+        <v>-0.0002407107532059749</v>
       </c>
       <c r="W32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3752,7 +3752,7 @@
         <v>0.5122166864232999</v>
       </c>
       <c r="K33">
-        <v>33.87191075339848</v>
+        <v>-0.1612808924660152</v>
       </c>
       <c r="L33">
         <v>-0.0156077721336131</v>
@@ -3782,13 +3782,13 @@
         <v>-0.1312500000000227</v>
       </c>
       <c r="U33">
-        <v>0.9998360584069249</v>
+        <v>-0.0001639415930750898</v>
       </c>
       <c r="V33">
-        <v>0.9997811193556154</v>
+        <v>-0.0002188806443845781</v>
       </c>
       <c r="W33">
-        <v>0.9996712689020383</v>
+        <v>-0.0003287310979617208</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3823,7 +3823,7 @@
         <v>0.5692018105182195</v>
       </c>
       <c r="K34">
-        <v>36.27333378682784</v>
+        <v>-0.1372666621317216</v>
       </c>
       <c r="L34">
         <v>-0.01577766031309025</v>
@@ -3853,13 +3853,13 @@
         <v>-0.1281250000000114</v>
       </c>
       <c r="U34">
-        <v>0.9997813753675627</v>
+        <v>-0.0002186246324372698</v>
       </c>
       <c r="V34">
-        <v>0.9998029642927513</v>
+        <v>-0.0001970357072487161</v>
       </c>
       <c r="W34">
-        <v>1.000328839197632</v>
+        <v>0.0003288391976321581</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3894,7 +3894,7 @@
         <v>0.6891704928233477</v>
       </c>
       <c r="K35">
-        <v>40.79934475243173</v>
+        <v>-0.09200655247568273</v>
       </c>
       <c r="L35">
         <v>-0.01549650263293556</v>
@@ -3924,13 +3924,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U35">
-        <v>0.9998250620483047</v>
+        <v>-0.0001749379516953198</v>
       </c>
       <c r="V35">
-        <v>0.9998686169746868</v>
+        <v>-0.0001313830253132364</v>
       </c>
       <c r="W35">
-        <v>1.000657462195924</v>
+        <v>0.0006574621959236637</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3965,7 +3965,7 @@
         <v>0.8154533163024659</v>
       </c>
       <c r="K36">
-        <v>44.91733877042345</v>
+        <v>-0.05082661229576552</v>
       </c>
       <c r="L36">
         <v>-0.01466364649276442</v>
@@ -3995,13 +3995,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U36">
-        <v>0.9999125157198316</v>
+        <v>-8.748428016835952E-05</v>
       </c>
       <c r="V36">
-        <v>1.00004380009636</v>
+        <v>4.380009636006932E-05</v>
       </c>
       <c r="W36">
-        <v>1.00065703022339</v>
+        <v>0.0006570302233903647</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4036,7 +4036,7 @@
         <v>0.8819179602388062</v>
       </c>
       <c r="K37">
-        <v>46.86272084500938</v>
+        <v>-0.03137279154990624</v>
       </c>
       <c r="L37">
         <v>-0.01337729441038105</v>
@@ -4066,13 +4066,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U37">
-        <v>0.9999671905246234</v>
+        <v>-3.280947537664947E-05</v>
       </c>
       <c r="V37">
-        <v>1.000065697266994</v>
+        <v>6.569726699390266E-05</v>
       </c>
       <c r="W37">
-        <v>1.000328299409061</v>
+        <v>0.0003282994090609836</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4107,7 +4107,7 @@
         <v>1.021843526420615</v>
       </c>
       <c r="K38">
-        <v>50.540188351254</v>
+        <v>0.005401883512540007</v>
       </c>
       <c r="L38">
         <v>-0.01161019435710399</v>
@@ -4137,13 +4137,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U38">
-        <v>0.9999890631493755</v>
+        <v>-1.093685062447669E-05</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1.000656383327863</v>
+        <v>0.0006563833278634412</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4178,7 +4178,7 @@
         <v>0.7893242723075951</v>
       </c>
       <c r="K39">
-        <v>44.11298077847265</v>
+        <v>-0.05887019221527345</v>
       </c>
       <c r="L39">
         <v>-0.01010385638726997</v>
@@ -4208,13 +4208,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U39">
-        <v>0.9999015672678355</v>
+        <v>-9.843273216447734E-05</v>
       </c>
       <c r="V39">
-        <v>0.9999343070488537</v>
+        <v>-6.569295114633444E-05</v>
       </c>
       <c r="W39">
-        <v>0.9986880944571992</v>
+        <v>-0.001311905542800806</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4249,7 +4249,7 @@
         <v>0.7447289639429303</v>
       </c>
       <c r="K40">
-        <v>42.68450741253873</v>
+        <v>-0.0731549258746127</v>
       </c>
       <c r="L40">
         <v>-0.008934588576013978</v>
@@ -4279,13 +4279,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U40">
-        <v>0.999868743437172</v>
+        <v>-0.0001312565628279749</v>
       </c>
       <c r="V40">
-        <v>0.9999124036440084</v>
+        <v>-8.759635599164817E-05</v>
       </c>
       <c r="W40">
-        <v>0.999671592775041</v>
+        <v>-0.0003284072249589709</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4320,7 +4320,7 @@
         <v>0.7447289639429303</v>
       </c>
       <c r="K41">
-        <v>42.68450741253873</v>
+        <v>-0.0731549258746127</v>
       </c>
       <c r="L41">
         <v>-0.008011227096795024</v>
@@ -4350,13 +4350,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U41">
-        <v>0.9998796656894061</v>
+        <v>-0.0001203343105938837</v>
       </c>
       <c r="V41">
-        <v>0.9999561979851074</v>
+        <v>-4.380201489262436E-05</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4391,7 +4391,7 @@
         <v>0.7447289639429303</v>
       </c>
       <c r="K42">
-        <v>42.68450741253873</v>
+        <v>-0.0731549258746127</v>
       </c>
       <c r="L42">
         <v>-0.007266336006525579</v>
@@ -4421,13 +4421,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U42">
-        <v>0.9998796512073171</v>
+        <v>-0.0001203487926828561</v>
       </c>
       <c r="V42">
-        <v>0.9999780980332034</v>
+        <v>-2.190196679663359E-05</v>
       </c>
       <c r="W42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4462,7 +4462,7 @@
         <v>0.8765221306303663</v>
       </c>
       <c r="K43">
-        <v>46.70992770737655</v>
+        <v>-0.03290072292623447</v>
       </c>
       <c r="L43">
         <v>-0.006410770957475618</v>
@@ -4492,13 +4492,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U43">
-        <v>0.9999452894189736</v>
+        <v>-5.471058102635151E-05</v>
       </c>
       <c r="V43">
-        <v>1.000087609786013</v>
+        <v>8.760978601318747E-05</v>
       </c>
       <c r="W43">
-        <v>1.00065703022339</v>
+        <v>0.0006570302233903647</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4533,7 +4533,7 @@
         <v>1.153981428919626</v>
       </c>
       <c r="K44">
-        <v>53.57434439434463</v>
+        <v>0.03574344394344631</v>
       </c>
       <c r="L44">
         <v>-0.005040257091614316</v>
@@ -4563,13 +4563,13 @@
         <v>0.08437499999996589</v>
       </c>
       <c r="U44">
-        <v>0.9999671718553373</v>
+        <v>-3.282814466265549E-05</v>
       </c>
       <c r="V44">
-        <v>1.000153303694619</v>
+        <v>0.000153303694618856</v>
       </c>
       <c r="W44">
-        <v>1.001313197636244</v>
+        <v>0.001313197636244157</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4604,7 +4604,7 @@
         <v>1.22699703373261</v>
       </c>
       <c r="K45">
-        <v>55.09648262423023</v>
+        <v>0.05096482624230225</v>
       </c>
       <c r="L45">
         <v>-0.003307441930312969</v>
@@ -4634,13 +4634,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>1.00019707453797</v>
+        <v>0.0001970745379697991</v>
       </c>
       <c r="W45">
-        <v>1.000327868852459</v>
+        <v>0.0003278688524590567</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4675,7 +4675,7 @@
         <v>1.22699703373261</v>
       </c>
       <c r="K46">
-        <v>55.09648262423023</v>
+        <v>0.05096482624230225</v>
       </c>
       <c r="L46">
         <v>-0.001453899473569174</v>
@@ -4705,13 +4705,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U46">
-        <v>1.000021886148257</v>
+        <v>2.188614825682222E-05</v>
       </c>
       <c r="V46">
-        <v>1.000197035707249</v>
+        <v>0.0001970357072489382</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4746,7 +4746,7 @@
         <v>1.056110502746694</v>
       </c>
       <c r="K47">
-        <v>51.36448169180932</v>
+        <v>0.01364481691809316</v>
       </c>
       <c r="L47">
         <v>0.0001202647960514378</v>
@@ -4776,13 +4776,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U47">
-        <v>0.9999562286614725</v>
+        <v>-4.377133852750958E-05</v>
       </c>
       <c r="V47">
-        <v>1.000153219804754</v>
+        <v>0.0001532198047540234</v>
       </c>
       <c r="W47">
-        <v>0.9993444772205833</v>
+        <v>-0.0006555227794167173</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4817,7 +4817,7 @@
         <v>0.8166616020591142</v>
       </c>
       <c r="K48">
-        <v>44.95397497990052</v>
+        <v>-0.05046025020099476</v>
       </c>
       <c r="L48">
         <v>0.0009456194934329198</v>
@@ -4847,13 +4847,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U48">
-        <v>0.9999343401181878</v>
+        <v>-6.565988181217453E-05</v>
       </c>
       <c r="V48">
-        <v>1.000087540761167</v>
+        <v>8.754076116690435E-05</v>
       </c>
       <c r="W48">
-        <v>0.9986880944571992</v>
+        <v>-0.001311905542800806</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4888,7 +4888,7 @@
         <v>0.7706790128823346</v>
       </c>
       <c r="K49">
-        <v>43.52449016876374</v>
+        <v>-0.06475509831236259</v>
       </c>
       <c r="L49">
         <v>0.001141831043656284</v>
@@ -4918,13 +4918,13 @@
         <v>0.05937499999998863</v>
       </c>
       <c r="U49">
-        <v>0.9999233917744653</v>
+        <v>-7.660822553468005E-05</v>
       </c>
       <c r="V49">
-        <v>1.000043766549227</v>
+        <v>4.376654922655376E-05</v>
       </c>
       <c r="W49">
-        <v>0.999671592775041</v>
+        <v>-0.0003284072249589709</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4959,7 +4959,7 @@
         <v>0.7706790128823346</v>
       </c>
       <c r="K50">
-        <v>43.52449016876374</v>
+        <v>-0.06475509831236259</v>
       </c>
       <c r="L50">
         <v>0.0009404319823415717</v>
@@ -4989,13 +4989,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U50">
-        <v>0.9999343307758819</v>
+        <v>-6.566922411810339E-05</v>
       </c>
       <c r="V50">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5030,7 +5030,7 @@
         <v>0.6491758260753849</v>
       </c>
       <c r="K51">
-        <v>39.36365157742197</v>
+        <v>-0.1063634842257803</v>
       </c>
       <c r="L51">
         <v>0.0001488160613788262</v>
@@ -5060,13 +5060,13 @@
         <v>0.03125</v>
       </c>
       <c r="U51">
-        <v>0.9999671632315759</v>
+        <v>-3.283676842413819E-05</v>
       </c>
       <c r="V51">
-        <v>0.9998905884155017</v>
+        <v>-0.0001094115844982868</v>
       </c>
       <c r="W51">
-        <v>0.9990144546649148</v>
+        <v>-0.0009855453350852139</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5101,7 +5101,7 @@
         <v>0.9257676133994355</v>
       </c>
       <c r="K52">
-        <v>48.07265461097025</v>
+        <v>-0.01927345389029744</v>
       </c>
       <c r="L52">
         <v>-0.0003522186282406862</v>
@@ -5131,13 +5131,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U52">
-        <v>1.000021891897809</v>
+        <v>2.189189780854583E-05</v>
       </c>
       <c r="V52">
-        <v>0.9999781152886592</v>
+        <v>-2.188471134079162E-05</v>
       </c>
       <c r="W52">
-        <v>1.001644195988162</v>
+        <v>0.001644195988161679</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5172,7 +5172,7 @@
         <v>0.8748265921924516</v>
       </c>
       <c r="K53">
-        <v>46.66173372169933</v>
+        <v>-0.03338266278300667</v>
       </c>
       <c r="L53">
         <v>-0.0007636490594688622</v>
@@ -5202,13 +5202,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U53">
-        <v>0.9999562171628722</v>
+        <v>-4.378283712780373E-05</v>
       </c>
       <c r="V53">
-        <v>0.999912459238833</v>
+        <v>-8.754076116701537E-05</v>
       </c>
       <c r="W53">
-        <v>0.9996717005909389</v>
+        <v>-0.0003282994090610947</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5243,7 +5243,7 @@
         <v>1.106513796670829</v>
       </c>
       <c r="K54">
-        <v>52.52820078461306</v>
+        <v>0.02528200784613066</v>
       </c>
       <c r="L54">
         <v>-0.0006134286591086101</v>
@@ -5273,13 +5273,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U54">
-        <v>1.000010946188537</v>
+        <v>1.094618853714202E-05</v>
       </c>
       <c r="V54">
-        <v>1.000087548425223</v>
+        <v>8.754842522273876E-05</v>
       </c>
       <c r="W54">
-        <v>1.001313628899836</v>
+        <v>0.001313628899835662</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5314,7 +5314,7 @@
         <v>1.042926252482732</v>
       </c>
       <c r="K55">
-        <v>51.05060700136788</v>
+        <v>0.01050607001367876</v>
       </c>
       <c r="L55">
         <v>-0.0002499465275410606</v>
@@ -5344,13 +5344,13 @@
         <v>-0.05312499999996589</v>
       </c>
       <c r="U55">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V55">
-        <v>1.000087540761167</v>
+        <v>8.754076116690435E-05</v>
       </c>
       <c r="W55">
-        <v>0.9996720236142999</v>
+        <v>-0.0003279763857001461</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5385,7 +5385,7 @@
         <v>1.10341737084157</v>
       </c>
       <c r="K56">
-        <v>52.45831788486639</v>
+        <v>0.0245831788486639</v>
       </c>
       <c r="L56">
         <v>0.0003400299279824849</v>
@@ -5415,13 +5415,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U56">
-        <v>1.000032838206159</v>
+        <v>3.283820615851418E-05</v>
       </c>
       <c r="V56">
-        <v>1.000109416373066</v>
+        <v>0.0001094163730661624</v>
       </c>
       <c r="W56">
-        <v>1.000328083989501</v>
+        <v>0.0003280839895012377</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5456,7 +5456,7 @@
         <v>0.9264438244138552</v>
       </c>
       <c r="K57">
-        <v>48.09088189715251</v>
+        <v>-0.01909118102847485</v>
       </c>
       <c r="L57">
         <v>0.0006696262972952434</v>
@@ -5486,13 +5486,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U57">
-        <v>1.000010945709282</v>
+        <v>1.094570928206196E-05</v>
       </c>
       <c r="V57">
-        <v>1.000043761760973</v>
+        <v>4.376176097320439E-05</v>
       </c>
       <c r="W57">
-        <v>0.9990160708428995</v>
+        <v>-0.0009839291571005493</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5527,7 +5527,7 @@
         <v>1.038995942666901</v>
       </c>
       <c r="K58">
-        <v>50.95625356213059</v>
+        <v>0.009562535621305934</v>
       </c>
       <c r="L58">
         <v>0.001057186080610405</v>
@@ -5557,13 +5557,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U58">
-        <v>1.000065673536848</v>
+        <v>6.567353684827637E-05</v>
       </c>
       <c r="V58">
-        <v>1.000043759845965</v>
+        <v>4.375984596527438E-05</v>
       </c>
       <c r="W58">
-        <v>1.000656598818122</v>
+        <v>0.0006565988181221893</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5598,7 +5598,7 @@
         <v>0.9289390408033535</v>
       </c>
       <c r="K59">
-        <v>48.15802994046273</v>
+        <v>-0.01841970059537273</v>
       </c>
       <c r="L59">
         <v>0.00121217097581763</v>
@@ -5628,13 +5628,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U59">
-        <v>1.000032834612059</v>
+        <v>3.283461205905169E-05</v>
       </c>
       <c r="V59">
-        <v>0.99991248413775</v>
+        <v>-8.75158622499761E-05</v>
       </c>
       <c r="W59">
-        <v>0.9993438320209974</v>
+        <v>-0.0006561679790025865</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5669,7 +5669,7 @@
         <v>0.9846896773675763</v>
       </c>
       <c r="K60">
-        <v>49.6142892562244</v>
+        <v>-0.003857107437755969</v>
       </c>
       <c r="L60">
         <v>0.001331537897804963</v>
@@ -5699,13 +5699,13 @@
         <v>0.02187500000002274</v>
       </c>
       <c r="U60">
-        <v>1.000054722556638</v>
+        <v>5.472255663785397E-05</v>
       </c>
       <c r="V60">
-        <v>0.9999124764780536</v>
+        <v>-8.752352194640878E-05</v>
       </c>
       <c r="W60">
-        <v>1.000328299409061</v>
+        <v>0.0003282994090609836</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5740,7 +5740,7 @@
         <v>0.9846896773675763</v>
       </c>
       <c r="K61">
-        <v>49.6142892562244</v>
+        <v>-0.003857107437755969</v>
       </c>
       <c r="L61">
         <v>0.001416869390764846</v>
@@ -5770,13 +5770,13 @@
         <v>0.046875</v>
       </c>
       <c r="U61">
-        <v>1.000054719562244</v>
+        <v>5.471956224356589E-05</v>
       </c>
       <c r="V61">
-        <v>0.999912468817016</v>
+        <v>-8.753118298399087E-05</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5811,7 +5811,7 @@
         <v>0.9274008280449261</v>
       </c>
       <c r="K62">
-        <v>48.11665609719812</v>
+        <v>-0.01883343902801876</v>
       </c>
       <c r="L62">
         <v>0.001351433688093118</v>
@@ -5841,13 +5841,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U62">
-        <v>1.000043773254542</v>
+        <v>4.37732545415237E-05</v>
       </c>
       <c r="V62">
-        <v>0.9999343458659781</v>
+        <v>-6.565413402193077E-05</v>
       </c>
       <c r="W62">
-        <v>0.9996718083360684</v>
+        <v>-0.0003281916639316096</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5882,7 +5882,7 @@
         <v>1.049884191696732</v>
       </c>
       <c r="K63">
-        <v>51.21675633918232</v>
+        <v>0.01216756339182323</v>
       </c>
       <c r="L63">
         <v>0.001433009676164229</v>
@@ -5912,13 +5912,13 @@
         <v>0.04687499999997158</v>
       </c>
       <c r="U63">
-        <v>1.000076599842423</v>
+        <v>7.659984242303075E-05</v>
       </c>
       <c r="V63">
-        <v>1.00006565844477</v>
+        <v>6.565844477046667E-05</v>
       </c>
       <c r="W63">
-        <v>1.000656598818122</v>
+        <v>0.0006565988181221893</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5953,7 +5953,7 @@
         <v>0.9299817749300862</v>
       </c>
       <c r="K64">
-        <v>48.18603921603223</v>
+        <v>-0.01813960783967772</v>
       </c>
       <c r="L64">
         <v>0.001354135330597572</v>
@@ -5983,13 +5983,13 @@
         <v>0.02500000000003411</v>
       </c>
       <c r="U64">
-        <v>1.000043767985907</v>
+        <v>4.376798590666198E-05</v>
       </c>
       <c r="V64">
-        <v>1.000043769422681</v>
+        <v>4.376942268113915E-05</v>
       </c>
       <c r="W64">
-        <v>0.9993438320209974</v>
+        <v>-0.0006561679790025865</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6024,7 +6024,7 @@
         <v>0.9299817749300862</v>
       </c>
       <c r="K65">
-        <v>48.18603921603223</v>
+        <v>-0.01813960783967772</v>
       </c>
       <c r="L65">
         <v>0.001178160998578308</v>
@@ -6054,13 +6054,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U65">
-        <v>1.000021883035177</v>
+        <v>2.188303517702828E-05</v>
       </c>
       <c r="V65">
-        <v>1.000043767507003</v>
+        <v>4.376750700285648E-05</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6095,7 +6095,7 @@
         <v>0.7816187849212651</v>
       </c>
       <c r="K66">
-        <v>43.87126985506089</v>
+        <v>-0.06128730144939104</v>
       </c>
       <c r="L66">
         <v>0.0005916822027823119</v>
@@ -6125,13 +6125,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U66">
-        <v>0.9999671761655197</v>
+        <v>-3.282383448033332E-05</v>
       </c>
       <c r="V66">
-        <v>1.000043765591492</v>
+        <v>4.376559149199544E-05</v>
       </c>
       <c r="W66">
-        <v>0.9990151017728168</v>
+        <v>-0.000984898227183173</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6166,7 +6166,7 @@
         <v>0.7816187849212651</v>
       </c>
       <c r="K67">
-        <v>43.87126985506089</v>
+        <v>-0.06128730144939104</v>
       </c>
       <c r="L67">
         <v>-0.0002082525573384767</v>
@@ -6196,13 +6196,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U67">
-        <v>0.9999562334507737</v>
+        <v>-4.376654922633172E-05</v>
       </c>
       <c r="V67">
-        <v>0.9999343544857768</v>
+        <v>-6.564551422316711E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6237,7 +6237,7 @@
         <v>0.7381263820383385</v>
       </c>
       <c r="K68">
-        <v>42.46678432972876</v>
+        <v>-0.07533215670271237</v>
       </c>
       <c r="L68">
         <v>-0.001205306785919501</v>
@@ -6267,13 +6267,13 @@
         <v>-0.05312500000002274</v>
       </c>
       <c r="U68">
-        <v>0.9999234051865632</v>
+        <v>-7.65948134368033E-05</v>
       </c>
       <c r="V68">
-        <v>0.9999343501761604</v>
+        <v>-6.56498238396086E-05</v>
       </c>
       <c r="W68">
-        <v>0.9996713769306604</v>
+        <v>-0.000328623069339562</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6308,7 +6308,7 @@
         <v>1.089562229810139</v>
       </c>
       <c r="K69">
-        <v>52.14308596634321</v>
+        <v>0.02143085966343217</v>
       </c>
       <c r="L69">
         <v>-0.001536670744316125</v>
@@ -6338,13 +6338,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U69">
-        <v>1.000032828863136</v>
+        <v>3.282886313638045E-05</v>
       </c>
       <c r="V69">
-        <v>0.999978115288659</v>
+        <v>-2.188471134101366E-05</v>
       </c>
       <c r="W69">
-        <v>1.001972386587771</v>
+        <v>0.001972386587771213</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6379,7 +6379,7 @@
         <v>1.151217641699905</v>
       </c>
       <c r="K70">
-        <v>53.51469880984269</v>
+        <v>0.03514698809842687</v>
       </c>
       <c r="L70">
         <v>-0.001318494815588879</v>
@@ -6409,13 +6409,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U70">
-        <v>1.000054712975729</v>
+        <v>5.471297572912093E-05</v>
       </c>
       <c r="V70">
-        <v>1.000021885190292</v>
+        <v>2.188519029200364E-05</v>
       </c>
       <c r="W70">
-        <v>1.000328083989501</v>
+        <v>0.0003280839895012377</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6450,7 +6450,7 @@
         <v>1.081056599669611</v>
       </c>
       <c r="K71">
-        <v>51.94748666813</v>
+        <v>0.01947486668130005</v>
       </c>
       <c r="L71">
         <v>-0.0008960172851612727</v>
@@ -6480,13 +6480,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U71">
-        <v>1.000043767985907</v>
+        <v>4.376798590688402E-05</v>
       </c>
       <c r="V71">
-        <v>0.9999781152886592</v>
+        <v>-2.188471134079162E-05</v>
       </c>
       <c r="W71">
-        <v>0.9996720236142999</v>
+        <v>-0.0003279763857001461</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6521,7 +6521,7 @@
         <v>1.08105659966961</v>
       </c>
       <c r="K72">
-        <v>51.94748666813</v>
+        <v>0.01947486668129994</v>
       </c>
       <c r="L72">
         <v>-0.0003734224185070992</v>
@@ -6551,13 +6551,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U72">
-        <v>1.000043766070354</v>
+        <v>4.376607035383451E-05</v>
       </c>
       <c r="V72">
-        <v>1.000043770380583</v>
+        <v>4.377038058334115E-05</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6592,7 +6592,7 @@
         <v>1.012671723156482</v>
       </c>
       <c r="K73">
-        <v>50.31479855881835</v>
+        <v>0.003147985588183411</v>
       </c>
       <c r="L73">
         <v>5.834570978450156E-05</v>
@@ -6622,13 +6622,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U73">
-        <v>1.000010941038742</v>
+        <v>1.094103874232921E-05</v>
       </c>
       <c r="V73">
-        <v>0.9999781157675897</v>
+        <v>-2.188423241034076E-05</v>
       </c>
       <c r="W73">
-        <v>0.9996719160104987</v>
+        <v>-0.0003280839895013488</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6663,7 +6663,7 @@
         <v>0.9494508462771729</v>
       </c>
       <c r="K74">
-        <v>48.70350273721034</v>
+        <v>-0.01296497262789664</v>
       </c>
       <c r="L74">
         <v>0.0002878212725121127</v>
@@ -6693,13 +6693,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U74">
-        <v>0.9999562363238512</v>
+        <v>-4.376367614877807E-05</v>
       </c>
       <c r="V74">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W74">
-        <v>0.9996718083360684</v>
+        <v>-0.0003281916639316096</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6734,7 +6734,7 @@
         <v>0.9494508462771729</v>
       </c>
       <c r="K75">
-        <v>48.70350273721034</v>
+        <v>-0.01296497262789664</v>
       </c>
       <c r="L75">
         <v>0.0003790707908892417</v>
@@ -6764,13 +6764,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U75">
-        <v>0.9999452930106347</v>
+        <v>-5.470698936527185E-05</v>
       </c>
       <c r="V75">
-        <v>0.9999781152886593</v>
+        <v>-2.18847113406806E-05</v>
       </c>
       <c r="W75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6805,7 +6805,7 @@
         <v>1.018625122111517</v>
       </c>
       <c r="K76">
-        <v>50.461331871567</v>
+        <v>0.004613318715670056</v>
       </c>
       <c r="L76">
         <v>0.000498920847502989</v>
@@ -6835,13 +6835,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U76">
-        <v>0.9999562320140936</v>
+        <v>-4.376798590643993E-05</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
-        <v>1.000328299409061</v>
+        <v>0.0003282994090609836</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6876,7 +6876,7 @@
         <v>1.018625122111517</v>
       </c>
       <c r="K77">
-        <v>50.461331871567</v>
+        <v>0.004613318715670056</v>
       </c>
       <c r="L77">
         <v>0.0006266424649548662</v>
@@ -6906,13 +6906,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U77">
-        <v>0.9999781150491864</v>
+        <v>-2.188495081356656E-05</v>
       </c>
       <c r="V77">
-        <v>1.000021885190292</v>
+        <v>2.18851902917816E-05</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6947,7 +6947,7 @@
         <v>1.2485673132507</v>
       </c>
       <c r="K78">
-        <v>55.52723753889655</v>
+        <v>0.05527237538896546</v>
       </c>
       <c r="L78">
         <v>0.001107313002935114</v>
@@ -6977,13 +6977,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U78">
-        <v>1.000054713574438</v>
+        <v>5.471357443775915E-05</v>
       </c>
       <c r="V78">
-        <v>1.000043769422681</v>
+        <v>4.376942268136119E-05</v>
       </c>
       <c r="W78">
-        <v>1.000984574991795</v>
+        <v>0.0009845749917951618</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7018,7 +7018,7 @@
         <v>1.2485673132507</v>
       </c>
       <c r="K79">
-        <v>55.52723753889655</v>
+        <v>0.05527237538896546</v>
       </c>
       <c r="L79">
         <v>0.001767131468882668</v>
@@ -7048,13 +7048,13 @@
         <v>0.05000000000003979</v>
       </c>
       <c r="U79">
-        <v>1.000065652697232</v>
+        <v>6.565269723179945E-05</v>
       </c>
       <c r="V79">
-        <v>1.000087535014006</v>
+        <v>8.753501400571295E-05</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7089,7 +7089,7 @@
         <v>1.2485673132507</v>
       </c>
       <c r="K80">
-        <v>55.52723753889655</v>
+        <v>0.05527237538896546</v>
       </c>
       <c r="L80">
         <v>0.00248697699579505</v>
@@ -7119,13 +7119,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U80">
-        <v>1.000065648387238</v>
+        <v>6.564838723788213E-05</v>
       </c>
       <c r="V80">
-        <v>1.000087527352298</v>
+        <v>8.752735229755615E-05</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7160,7 +7160,7 @@
         <v>1.146107848787624</v>
       </c>
       <c r="K81">
-        <v>53.40401925444154</v>
+        <v>0.03404019254441537</v>
       </c>
       <c r="L81">
         <v>0.003068702419101899</v>
@@ -7190,13 +7190,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U81">
-        <v>1.00008752543708</v>
+        <v>8.752543708001603E-05</v>
       </c>
       <c r="V81">
-        <v>1.000131279537896</v>
+        <v>0.0001312795378960452</v>
       </c>
       <c r="W81">
-        <v>0.9996721311475409</v>
+        <v>-0.0003278688524590567</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7231,7 +7231,7 @@
         <v>1.232488508213244</v>
       </c>
       <c r="K82">
-        <v>55.20693628114831</v>
+        <v>0.05206936281148311</v>
       </c>
       <c r="L82">
         <v>0.003638010344254248</v>
@@ -7261,13 +7261,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U82">
-        <v>1.000043758888524</v>
+        <v>4.375888852425902E-05</v>
       </c>
       <c r="V82">
-        <v>1.000153139356815</v>
+        <v>0.0001531393568148243</v>
       </c>
       <c r="W82">
-        <v>1.0003279763857</v>
+        <v>0.0003279763857002571</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7302,7 +7302,7 @@
         <v>1.414342528056603</v>
       </c>
       <c r="K83">
-        <v>58.58085634580863</v>
+        <v>0.0858085634580863</v>
       </c>
       <c r="L83">
         <v>0.004389275723125603</v>
@@ -7332,13 +7332,13 @@
         <v>0.06562499999998295</v>
       </c>
       <c r="U83">
-        <v>1.000076574704093</v>
+        <v>7.657470409339062E-05</v>
       </c>
       <c r="V83">
-        <v>1.00021873701249</v>
+        <v>0.0002187370124897559</v>
       </c>
       <c r="W83">
-        <v>1.000655737704918</v>
+        <v>0.0006557377049178914</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7373,7 +7373,7 @@
         <v>1.290796942385905</v>
       </c>
       <c r="K84">
-        <v>56.34706937584426</v>
+        <v>0.06347069375844261</v>
       </c>
       <c r="L84">
         <v>0.005067337456809173</v>
@@ -7403,13 +7403,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U84">
-        <v>1.000021876811674</v>
+        <v>2.187681167353794E-05</v>
       </c>
       <c r="V84">
-        <v>1.000065606753122</v>
+        <v>6.560675312194952E-05</v>
       </c>
       <c r="W84">
-        <v>0.9996723460026213</v>
+        <v>-0.000327653997378663</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7444,7 +7444,7 @@
         <v>1.182103228015292</v>
       </c>
       <c r="K85">
-        <v>54.17265383409294</v>
+        <v>0.04172653834092943</v>
       </c>
       <c r="L85">
         <v>0.005519833639424967</v>
@@ -7474,13 +7474,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U85">
-        <v>1.000021876333089</v>
+        <v>2.187633308925463E-05</v>
       </c>
       <c r="V85">
-        <v>1.000021867483053</v>
+        <v>2.18674830527732E-05</v>
       </c>
       <c r="W85">
-        <v>0.9996722386102916</v>
+        <v>-0.0003277613897083587</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7515,7 +7515,7 @@
         <v>0.9337929291786081</v>
       </c>
       <c r="K86">
-        <v>48.2881551115839</v>
+        <v>-0.01711844888416097</v>
       </c>
       <c r="L86">
         <v>0.005428219719471261</v>
@@ -7545,13 +7545,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U86">
-        <v>0.9999781241454746</v>
+        <v>-2.187585452539942E-05</v>
       </c>
       <c r="V86">
-        <v>0.9999781329951237</v>
+        <v>-2.18670048762748E-05</v>
       </c>
       <c r="W86">
-        <v>0.9990163934426229</v>
+        <v>-0.0009836065573770592</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7586,7 +7586,7 @@
         <v>1.007497508084757</v>
       </c>
       <c r="K87">
-        <v>50.18673766852917</v>
+        <v>0.001867376685291688</v>
       </c>
       <c r="L87">
         <v>0.005112594966093701</v>
@@ -7616,13 +7616,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U87">
-        <v>1.000021876333089</v>
+        <v>2.187633308881054E-05</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>1.000328191663932</v>
+        <v>0.0003281916639317206</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7657,7 +7657,7 @@
         <v>0.9349598042271394</v>
       </c>
       <c r="K88">
-        <v>48.31933987386268</v>
+        <v>-0.01680660126137318</v>
       </c>
       <c r="L88">
         <v>0.004543294706842984</v>
@@ -7687,13 +7687,13 @@
         <v>0.03437499999995453</v>
       </c>
       <c r="U88">
-        <v>0.9999890620727372</v>
+        <v>-1.093792726281073E-05</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>0.9996719160104987</v>
+        <v>-0.0003280839895013488</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7728,7 +7728,7 @@
         <v>0.8690935811716911</v>
       </c>
       <c r="K89">
-        <v>46.49813096179361</v>
+        <v>-0.03501869038206384</v>
       </c>
       <c r="L89">
         <v>0.00372060276074367</v>
@@ -7758,13 +7758,13 @@
         <v>0.01875000000003979</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>0.9996718083360684</v>
+        <v>-0.0003281916639316096</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7799,7 +7799,7 @@
         <v>0.8690935811716911</v>
       </c>
       <c r="K90">
-        <v>46.49813096179361</v>
+        <v>-0.03501869038206384</v>
       </c>
       <c r="L90">
         <v>0.002783317075130203</v>
@@ -7829,13 +7829,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U90">
-        <v>0.9999890619530973</v>
+        <v>-1.093804690266431E-05</v>
       </c>
       <c r="V90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7870,7 +7870,7 @@
         <v>0.7517344095354529</v>
       </c>
       <c r="K91">
-        <v>42.91372056422682</v>
+        <v>-0.0708627943577318</v>
       </c>
       <c r="L91">
         <v>0.001587268283214476</v>
@@ -7900,13 +7900,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U91">
-        <v>0.9999671855003667</v>
+        <v>-3.281449963332683E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999343975508418</v>
+        <v>-6.560244915820856E-05</v>
       </c>
       <c r="W91">
-        <v>0.9993434011818777</v>
+        <v>-0.0006565988181223004</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7941,7 +7941,7 @@
         <v>0.7517344095354529</v>
       </c>
       <c r="K92">
-        <v>42.91372056422682</v>
+        <v>-0.0708627943577318</v>
       </c>
       <c r="L92">
         <v>0.0003049055055981302</v>
@@ -7971,13 +7971,13 @@
         <v>-0.08437500000002274</v>
       </c>
       <c r="U92">
-        <v>0.9999781229490264</v>
+        <v>-2.187705097356218E-05</v>
       </c>
       <c r="V92">
-        <v>0.9999343932468785</v>
+        <v>-6.560675312150543E-05</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8012,7 +8012,7 @@
         <v>0.8265467577831163</v>
       </c>
       <c r="K93">
-        <v>45.25188059167441</v>
+        <v>-0.04748119408325585</v>
       </c>
       <c r="L93">
         <v>-0.0008296862076987552</v>
@@ -8042,13 +8042,13 @@
         <v>-0.1093750000000284</v>
       </c>
       <c r="U93">
-        <v>0.9999671837056158</v>
+        <v>-3.281629438423028E-05</v>
       </c>
       <c r="V93">
-        <v>0.9998906482372495</v>
+        <v>-0.0001093517627505092</v>
       </c>
       <c r="W93">
-        <v>1.000328515111695</v>
+        <v>0.0003285151116951823</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8083,7 +8083,7 @@
         <v>0.8265467577831163</v>
       </c>
       <c r="K94">
-        <v>45.25188059167441</v>
+        <v>-0.04748119408325585</v>
       </c>
       <c r="L94">
         <v>-0.0017994644158619</v>
@@ -8113,13 +8113,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U94">
-        <v>0.9999890608762239</v>
+        <v>-1.093912377614359E-05</v>
       </c>
       <c r="V94">
-        <v>0.9998906362781339</v>
+        <v>-0.0001093637218660959</v>
       </c>
       <c r="W94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8154,7 +8154,7 @@
         <v>0.7632753747937163</v>
       </c>
       <c r="K95">
-        <v>43.28736087991991</v>
+        <v>-0.06712639120080088</v>
       </c>
       <c r="L95">
         <v>-0.002720551443580993</v>
@@ -8184,13 +8184,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U95">
-        <v>0.9999781215131164</v>
+        <v>-2.187848688361971E-05</v>
       </c>
       <c r="V95">
-        <v>0.9998687491796823</v>
+        <v>-0.0001312508203177298</v>
       </c>
       <c r="W95">
-        <v>0.999671592775041</v>
+        <v>-0.0003284072249589709</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8225,7 +8225,7 @@
         <v>0.843853339864861</v>
       </c>
       <c r="K96">
-        <v>45.7657516257073</v>
+        <v>-0.04234248374292704</v>
       </c>
       <c r="L96">
         <v>-0.003424099814335057</v>
@@ -8255,13 +8255,13 @@
         <v>-0.109375</v>
       </c>
       <c r="U96">
-        <v>1.000021878965562</v>
+        <v>2.1878965562383E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999124879670954</v>
+        <v>-8.751203290457976E-05</v>
       </c>
       <c r="W96">
-        <v>1.000328515111695</v>
+        <v>0.0003285151116951823</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8296,7 +8296,7 @@
         <v>0.7778748430898933</v>
       </c>
       <c r="K97">
-        <v>43.75307103946474</v>
+        <v>-0.06246928960535264</v>
       </c>
       <c r="L97">
         <v>-0.00405806537819854</v>
@@ -8326,13 +8326,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U97">
-        <v>1.000010939243442</v>
+        <v>1.093924344197639E-05</v>
       </c>
       <c r="V97">
-        <v>0.999868720462104</v>
+        <v>-0.0001312795378960452</v>
       </c>
       <c r="W97">
-        <v>0.999671592775041</v>
+        <v>-0.0003284072249589709</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8367,7 +8367,7 @@
         <v>0.8601771176153818</v>
       </c>
       <c r="K98">
-        <v>46.24167825040603</v>
+        <v>-0.03758321749593968</v>
       </c>
       <c r="L98">
         <v>-0.004475248493932274</v>
@@ -8397,13 +8397,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U98">
-        <v>1.000032817371328</v>
+        <v>3.281737132843077E-05</v>
       </c>
       <c r="V98">
-        <v>0.999846820429778</v>
+        <v>-0.000153179570221984</v>
       </c>
       <c r="W98">
-        <v>1.000328515111695</v>
+        <v>0.0003285151116951823</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8438,7 +8438,7 @@
         <v>0.860177117615382</v>
       </c>
       <c r="K99">
-        <v>46.24167825040604</v>
+        <v>-0.03758321749593962</v>
       </c>
       <c r="L99">
         <v>-0.004718231664813781</v>
@@ -8468,13 +8468,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U99">
-        <v>0.999967183705616</v>
+        <v>-3.281629438400824E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998686831104595</v>
+        <v>-0.0001313168895404893</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8509,7 +8509,7 @@
         <v>0.8601771176153818</v>
       </c>
       <c r="K100">
-        <v>46.24167825040603</v>
+        <v>-0.03758321749593968</v>
       </c>
       <c r="L100">
         <v>-0.00482302281096289</v>
@@ -8539,13 +8539,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U100">
-        <v>0.9999562435048953</v>
+        <v>-4.375649510468538E-05</v>
       </c>
       <c r="V100">
-        <v>0.9998905548867244</v>
+        <v>-0.0001094451132755969</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8580,7 +8580,7 @@
         <v>0.860177117615382</v>
       </c>
       <c r="K101">
-        <v>46.24167825040604</v>
+        <v>-0.03758321749593962</v>
       </c>
       <c r="L101">
         <v>-0.004819857322693892</v>
@@ -8610,13 +8610,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U101">
-        <v>0.9999671811926355</v>
+        <v>-3.28188073644986E-05</v>
       </c>
       <c r="V101">
-        <v>0.9999562171628719</v>
+        <v>-4.37828371281368E-05</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8651,7 +8651,7 @@
         <v>0.9612227198136324</v>
       </c>
       <c r="K102">
-        <v>49.01140039337163</v>
+        <v>-0.009885996066283709</v>
       </c>
       <c r="L102">
         <v>-0.004614430529412039</v>
@@ -8681,13 +8681,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U102">
-        <v>0.9999781200770174</v>
+        <v>-2.187992298263719E-05</v>
       </c>
       <c r="V102">
-        <v>0.9999562152458518</v>
+        <v>-4.378475414823502E-05</v>
       </c>
       <c r="W102">
-        <v>1.000328407224959</v>
+        <v>0.0003284072249589709</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8722,7 +8722,7 @@
         <v>0.8688125252730076</v>
       </c>
       <c r="K103">
-        <v>46.49008466732563</v>
+        <v>-0.03509915332674368</v>
       </c>
       <c r="L103">
         <v>-0.004402252909721128</v>
@@ -8752,13 +8752,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U103">
-        <v>0.9999781195982759</v>
+        <v>-2.188040172412808E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999562133286625</v>
+        <v>-4.378667133753122E-05</v>
       </c>
       <c r="W103">
-        <v>0.9996717005909389</v>
+        <v>-0.0003282994090610947</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8793,7 +8793,7 @@
         <v>0.6664746655100321</v>
       </c>
       <c r="K104">
-        <v>39.99308716199742</v>
+        <v>-0.1000691283800259</v>
       </c>
       <c r="L104">
         <v>-0.004542042583662155</v>
@@ -8823,13 +8823,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U104">
-        <v>0.9999562382390268</v>
+        <v>-4.376176097320439E-05</v>
       </c>
       <c r="V104">
-        <v>0.9999124228226125</v>
+        <v>-8.757717738749893E-05</v>
       </c>
       <c r="W104">
-        <v>0.9990147783251231</v>
+        <v>-0.0009852216748769127</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8864,7 +8864,7 @@
         <v>0.7481904997119103</v>
       </c>
       <c r="K105">
-        <v>42.79799597556484</v>
+        <v>-0.0720200402443516</v>
       </c>
       <c r="L105">
         <v>-0.004750146442309111</v>
@@ -8894,13 +8894,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U105">
-        <v>0.9999671772428884</v>
+        <v>-3.282275711158356E-05</v>
       </c>
       <c r="V105">
-        <v>0.999934311364134</v>
+        <v>-6.568863586597917E-05</v>
       </c>
       <c r="W105">
-        <v>1.000328731097962</v>
+        <v>0.0003287310979618319</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8935,7 +8935,7 @@
         <v>0.6889309547877256</v>
       </c>
       <c r="K106">
-        <v>40.79094843011592</v>
+        <v>-0.0920905156988408</v>
       </c>
       <c r="L106">
         <v>-0.005088642885715699</v>
@@ -8965,13 +8965,13 @@
         <v>-0.009374999999977263</v>
       </c>
       <c r="U106">
-        <v>0.9999452936091995</v>
+        <v>-5.470639080051853E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999562046992359</v>
+        <v>-4.379530076414895E-05</v>
       </c>
       <c r="W106">
-        <v>0.9996713769306604</v>
+        <v>-0.000328623069339562</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9006,7 +9006,7 @@
         <v>0.6359133098416999</v>
       </c>
       <c r="K107">
-        <v>38.87206650963885</v>
+        <v>-0.1112793349036115</v>
       </c>
       <c r="L107">
         <v>-0.005585622813840042</v>
@@ -9036,13 +9036,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U107">
-        <v>0.9999343487394955</v>
+        <v>-6.565126050450676E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999343041716849</v>
+        <v>-6.569582831505993E-05</v>
       </c>
       <c r="W107">
-        <v>0.9996712689020383</v>
+        <v>-0.0003287310979617208</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9077,7 +9077,7 @@
         <v>0.6359133098416999</v>
       </c>
       <c r="K108">
-        <v>38.87206650963885</v>
+        <v>-0.1112793349036115</v>
       </c>
       <c r="L108">
         <v>-0.006126677051102334</v>
@@ -9107,13 +9107,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U108">
-        <v>0.9999015166436873</v>
+        <v>-9.848335631268412E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999123998072794</v>
+        <v>-8.760019272058273E-05</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9148,7 +9148,7 @@
         <v>0.5859492705732218</v>
       </c>
       <c r="K109">
-        <v>36.94628078245137</v>
+        <v>-0.1305371921754863</v>
       </c>
       <c r="L109">
         <v>-0.006757263855660583</v>
@@ -9178,13 +9178,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U109">
-        <v>0.9998905632708449</v>
+        <v>-0.000109436729155088</v>
       </c>
       <c r="V109">
-        <v>0.9998904901660171</v>
+        <v>-0.0001095098339829459</v>
       </c>
       <c r="W109">
-        <v>0.9996711608023676</v>
+        <v>-0.0003288391976323801</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9219,7 +9219,7 @@
         <v>0.5027831027731621</v>
       </c>
       <c r="K110">
-        <v>33.45679771387839</v>
+        <v>-0.1654320228612161</v>
       </c>
       <c r="L110">
         <v>-0.007616513285108147</v>
@@ -9249,13 +9249,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U110">
-        <v>0.9998686615517639</v>
+        <v>-0.0001313384482360958</v>
       </c>
       <c r="V110">
-        <v>0.9998685738067598</v>
+        <v>-0.0001314261932402472</v>
       </c>
       <c r="W110">
-        <v>0.9993421052631579</v>
+        <v>-0.0006578947368420796</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9290,7 +9290,7 @@
         <v>0.5774852475857258</v>
       </c>
       <c r="K111">
-        <v>36.60796501707655</v>
+        <v>-0.1339203498292345</v>
       </c>
       <c r="L111">
         <v>-0.008412381587279459</v>
@@ -9320,13 +9320,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U111">
-        <v>0.999890536916425</v>
+        <v>-0.0001094630835749566</v>
       </c>
       <c r="V111">
-        <v>0.9998685565316451</v>
+        <v>-0.0001314434683549193</v>
       </c>
       <c r="W111">
-        <v>1.000329163923634</v>
+        <v>0.0003291639236338018</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9361,7 +9361,7 @@
         <v>0.7347529208754231</v>
       </c>
       <c r="K112">
-        <v>42.35490322763881</v>
+        <v>-0.07645096772361193</v>
       </c>
       <c r="L112">
         <v>-0.008849451612384868</v>
@@ -9391,13 +9391,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U112">
-        <v>0.9999014724396518</v>
+        <v>-9.852756034822718E-05</v>
       </c>
       <c r="V112">
-        <v>0.9999342696259941</v>
+        <v>-6.573037400592341E-05</v>
       </c>
       <c r="W112">
-        <v>1.000658111220796</v>
+        <v>0.0006581112207963979</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9432,7 +9432,7 @@
         <v>0.7347529208754231</v>
       </c>
       <c r="K113">
-        <v>42.35490322763881</v>
+        <v>-0.07645096772361193</v>
       </c>
       <c r="L113">
         <v>-0.009009093761667003</v>
@@ -9462,13 +9462,13 @@
         <v>-0.1031250000000057</v>
       </c>
       <c r="U113">
-        <v>0.9998795655601297</v>
+        <v>-0.0001204344398703094</v>
       </c>
       <c r="V113">
-        <v>0.9999123537403042</v>
+        <v>-8.764625969581719E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9503,7 +9503,7 @@
         <v>0.8218818257450119</v>
       </c>
       <c r="K114">
-        <v>45.11169792304857</v>
+        <v>-0.04888302076951434</v>
       </c>
       <c r="L114">
         <v>-0.008838088273846563</v>
@@ -9533,13 +9533,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U114">
-        <v>0.9999014508623049</v>
+        <v>-9.85491376951364E-05</v>
       </c>
       <c r="V114">
-        <v>0.999934259543323</v>
+        <v>-6.574045667695483E-05</v>
       </c>
       <c r="W114">
-        <v>1.000328839197632</v>
+        <v>0.0003288391976321581</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9574,7 +9574,7 @@
         <v>0.7528357668866047</v>
       </c>
       <c r="K115">
-        <v>42.94958952279911</v>
+        <v>-0.07050410477200891</v>
       </c>
       <c r="L115">
         <v>-0.0085650547019566</v>
@@ -9604,13 +9604,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U115">
-        <v>0.9999014411494153</v>
+        <v>-9.855885058474012E-05</v>
       </c>
       <c r="V115">
-        <v>0.999912340294975</v>
+        <v>-8.765970502500053E-05</v>
       </c>
       <c r="W115">
-        <v>0.9996712689020383</v>
+        <v>-0.0003287310979617208</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9645,7 +9645,7 @@
         <v>0.7528357668866047</v>
       </c>
       <c r="K116">
-        <v>42.94958952279911</v>
+        <v>-0.07050410477200891</v>
       </c>
       <c r="L116">
         <v>-0.008216420283749687</v>
@@ -9675,13 +9675,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U116">
-        <v>0.9999342876230739</v>
+        <v>-6.571237692609699E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999123326100773</v>
+        <v>-8.766738992271872E-05</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9716,7 +9716,7 @@
         <v>0.7528357668866047</v>
       </c>
       <c r="K117">
-        <v>42.94958952279911</v>
+        <v>-0.07050410477200891</v>
       </c>
       <c r="L117">
         <v>-0.007814280469913649</v>
@@ -9746,13 +9746,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U117">
-        <v>0.9999233305221192</v>
+        <v>-7.666947788076417E-05</v>
       </c>
       <c r="V117">
-        <v>0.9998904061547903</v>
+        <v>-0.0001095938452096989</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9787,7 +9787,7 @@
         <v>0.5818101244731879</v>
       </c>
       <c r="K118">
-        <v>36.78128717673723</v>
+        <v>-0.1321871282326277</v>
       </c>
       <c r="L118">
         <v>-0.007735817721186727</v>
@@ -9817,13 +9817,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U118">
-        <v>0.9999014173987336</v>
+        <v>-9.858260126638374E-05</v>
       </c>
       <c r="V118">
-        <v>0.9998465517997284</v>
+        <v>-0.0001534482002716331</v>
       </c>
       <c r="W118">
-        <v>0.9990134824071029</v>
+        <v>-0.0009865175928971404</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9858,7 +9858,7 @@
         <v>0.581810124473188</v>
       </c>
       <c r="K119">
-        <v>36.78128717673724</v>
+        <v>-0.1321871282326276</v>
       </c>
       <c r="L119">
         <v>-0.007830370348697475</v>
@@ -9888,13 +9888,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U119">
-        <v>0.999912362381552</v>
+        <v>-8.763761844798879E-05</v>
       </c>
       <c r="V119">
-        <v>0.9999123018570083</v>
+        <v>-8.769814299169898E-05</v>
       </c>
       <c r="W119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9929,7 +9929,7 @@
         <v>0.8335278366120098</v>
       </c>
       <c r="K120">
-        <v>45.46033171507237</v>
+        <v>-0.04539668284927628</v>
       </c>
       <c r="L120">
         <v>-0.007636299422837642</v>
@@ -9959,13 +9959,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U120">
-        <v>0.9999452216878296</v>
+        <v>-5.477831217037821E-05</v>
       </c>
       <c r="V120">
-        <v>0.9999561470826845</v>
+        <v>-4.385291731545671E-05</v>
       </c>
       <c r="W120">
-        <v>1.000987491770902</v>
+        <v>0.0009874917709018494</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10000,7 +10000,7 @@
         <v>0.8335278366120097</v>
       </c>
       <c r="K121">
-        <v>45.46033171507236</v>
+        <v>-0.04539668284927634</v>
       </c>
       <c r="L121">
         <v>-0.007251899642262882</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>0.9999671312122007</v>
+        <v>-3.286878779928948E-05</v>
       </c>
       <c r="V121">
-        <v>0.999978072579761</v>
+        <v>-2.192742023898742E-05</v>
       </c>
       <c r="W121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10071,7 +10071,7 @@
         <v>0.8335278366120098</v>
       </c>
       <c r="K122">
-        <v>45.46033171507237</v>
+        <v>-0.04539668284927628</v>
       </c>
       <c r="L122">
         <v>-0.006750253025197489</v>
@@ -10101,13 +10101,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U122">
-        <v>0.9999671301318084</v>
+        <v>-3.286986819162063E-05</v>
       </c>
       <c r="V122">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10142,7 +10142,7 @@
         <v>0.9313915532427048</v>
       </c>
       <c r="K123">
-        <v>48.223859718085</v>
+        <v>-0.01776140281915006</v>
       </c>
       <c r="L123">
         <v>-0.006065252828477427</v>
@@ -10172,13 +10172,13 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>0.9999671290513442</v>
+        <v>-3.287094865578322E-05</v>
       </c>
       <c r="V123">
-        <v>1.000021927901061</v>
+        <v>2.192790106136933E-05</v>
       </c>
       <c r="W123">
-        <v>1.000328839197632</v>
+        <v>0.0003288391976321581</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10213,7 +10213,7 @@
         <v>0.7722796451349876</v>
       </c>
       <c r="K124">
-        <v>43.57549595826713</v>
+        <v>-0.06424504041732865</v>
       </c>
       <c r="L124">
         <v>-0.005530080390108202</v>
@@ -10243,13 +10243,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U124">
-        <v>0.9999452132846828</v>
+        <v>-5.478671531722323E-05</v>
       </c>
       <c r="V124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W124">
-        <v>0.9993425378040763</v>
+        <v>-0.0006574621959236637</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10284,7 +10284,7 @@
         <v>0.6545721065157415</v>
       </c>
       <c r="K125">
-        <v>39.56141312536468</v>
+        <v>-0.1043858687463532</v>
       </c>
       <c r="L125">
         <v>-0.005339058735818488</v>
@@ -10314,13 +10314,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U125">
-        <v>0.9999342523395209</v>
+        <v>-6.574766047906522E-05</v>
       </c>
       <c r="V125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W125">
-        <v>0.9993421052631579</v>
+        <v>-0.0006578947368420796</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10355,7 +10355,7 @@
         <v>0.605962527761249</v>
       </c>
       <c r="K126">
-        <v>37.73204650085925</v>
+        <v>-0.1226795349914075</v>
       </c>
       <c r="L126">
         <v>-0.005469024651335708</v>
@@ -10385,13 +10385,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U126">
-        <v>0.9999123306886424</v>
+        <v>-8.76693113576188E-05</v>
       </c>
       <c r="V126">
-        <v>0.999956145159522</v>
+        <v>-4.385484047797483E-05</v>
       </c>
       <c r="W126">
-        <v>0.999670836076366</v>
+        <v>-0.0003291639236340238</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10426,7 +10426,7 @@
         <v>0.5620286804920159</v>
       </c>
       <c r="K127">
-        <v>35.98068892787455</v>
+        <v>-0.1401931107212545</v>
       </c>
       <c r="L127">
         <v>-0.005885036552862215</v>
@@ -10456,13 +10456,13 @@
         <v>-0.02187499999996589</v>
       </c>
       <c r="U127">
-        <v>0.9999123230020605</v>
+        <v>-8.767699793954531E-05</v>
       </c>
       <c r="V127">
-        <v>0.9998903580904764</v>
+        <v>-0.0001096419095235612</v>
       </c>
       <c r="W127">
-        <v>0.9996707276918012</v>
+        <v>-0.0003292723081987914</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10497,7 +10497,7 @@
         <v>0.5620286804920159</v>
       </c>
       <c r="K128">
-        <v>35.98068892787455</v>
+        <v>-0.1401931107212545</v>
       </c>
       <c r="L128">
         <v>-0.006426488932676668</v>
@@ -10527,13 +10527,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U128">
-        <v>0.9999013547283968</v>
+        <v>-9.86452716031927E-05</v>
       </c>
       <c r="V128">
-        <v>0.9998903460678099</v>
+        <v>-0.0001096539321900902</v>
       </c>
       <c r="W128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10568,7 +10568,7 @@
         <v>0.5202354270785321</v>
       </c>
       <c r="K129">
-        <v>34.22071462170035</v>
+        <v>-0.1577928537829965</v>
       </c>
       <c r="L129">
         <v>-0.007105840865375013</v>
@@ -10598,13 +10598,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U129">
-        <v>0.9998903833294966</v>
+        <v>-0.0001096166705033541</v>
       </c>
       <c r="V129">
-        <v>0.9998464676595092</v>
+        <v>-0.0001535323404907585</v>
       </c>
       <c r="W129">
-        <v>0.9996706192358366</v>
+        <v>-0.000329380764163445</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10639,7 +10639,7 @@
         <v>0.4824699991615776</v>
       </c>
       <c r="K130">
-        <v>32.5450093043665</v>
+        <v>-0.174549906956335</v>
       </c>
       <c r="L130">
         <v>-0.007919412574406917</v>
@@ -10669,13 +10669,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U130">
-        <v>0.9998794084436017</v>
+        <v>-0.0001205915563983195</v>
       </c>
       <c r="V130">
-        <v>0.9998464440837097</v>
+        <v>-0.0001535559162902933</v>
       </c>
       <c r="W130">
-        <v>0.9996705107084018</v>
+        <v>-0.0003294892915981507</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10710,7 +10710,7 @@
         <v>0.5588836379656221</v>
       </c>
       <c r="K131">
-        <v>35.85153018187924</v>
+        <v>-0.1414846981812076</v>
       </c>
       <c r="L131">
         <v>-0.008614006185079692</v>
@@ -10740,13 +10740,13 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="U131">
-        <v>0.9998903580904764</v>
+        <v>-0.0001096419095235612</v>
       </c>
       <c r="V131">
-        <v>0.9998683604291452</v>
+        <v>-0.0001316395708548246</v>
       </c>
       <c r="W131">
-        <v>1.000329597890574</v>
+        <v>0.0003295978905735186</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10781,7 +10781,7 @@
         <v>0.5172763065443875</v>
       </c>
       <c r="K132">
-        <v>34.09242629791601</v>
+        <v>-0.1590757370208399</v>
       </c>
       <c r="L132">
         <v>-0.009280735930170547</v>
@@ -10811,13 +10811,13 @@
         <v>-0.1156250000000227</v>
       </c>
       <c r="U132">
-        <v>0.9998684152813719</v>
+        <v>-0.0001315847186280639</v>
       </c>
       <c r="V132">
-        <v>0.9998464002808682</v>
+        <v>-0.0001535997191317584</v>
       </c>
       <c r="W132">
-        <v>0.9996705107084018</v>
+        <v>-0.0003294892915981507</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10852,7 +10852,7 @@
         <v>0.479685515375792</v>
       </c>
       <c r="K133">
-        <v>32.41807197483902</v>
+        <v>-0.1758192802516098</v>
       </c>
       <c r="L133">
         <v>-0.009974185278640142</v>
@@ -10882,13 +10882,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U133">
-        <v>0.9998683979645553</v>
+        <v>-0.0001316020354447112</v>
       </c>
       <c r="V133">
-        <v>0.9998902690602641</v>
+        <v>-0.0001097309397358748</v>
       </c>
       <c r="W133">
-        <v>0.9996704021094266</v>
+        <v>-0.0003295978905734076</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10923,7 +10923,7 @@
         <v>0.4455992277562158</v>
       </c>
       <c r="K134">
-        <v>30.82453415860299</v>
+        <v>-0.1917546584139702</v>
       </c>
       <c r="L134">
         <v>-0.01072323391629225</v>
@@ -10953,13 +10953,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U134">
-        <v>0.9998903172026496</v>
+        <v>-0.0001096827973503522</v>
       </c>
       <c r="V134">
-        <v>0.9998683084216764</v>
+        <v>-0.0001316915783236006</v>
       </c>
       <c r="W134">
-        <v>0.9996702934388394</v>
+        <v>-0.0003297065611606032</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10994,7 +10994,7 @@
         <v>0.5203988654507988</v>
       </c>
       <c r="K135">
-        <v>34.22778569993871</v>
+        <v>-0.1577221430006129</v>
       </c>
       <c r="L135">
         <v>-0.01129956615172239</v>
@@ -11024,13 +11024,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U135">
-        <v>0.9998903051710145</v>
+        <v>-0.0001096948289854849</v>
       </c>
       <c r="V135">
-        <v>0.9998243881022941</v>
+        <v>-0.000175611897705874</v>
       </c>
       <c r="W135">
-        <v>1.00032981530343</v>
+        <v>0.0003298153034301254</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11065,7 +11065,7 @@
         <v>0.4824151999999015</v>
       </c>
       <c r="K136">
-        <v>32.54251575401639</v>
+        <v>-0.1745748424598361</v>
       </c>
       <c r="L136">
         <v>-0.01181329814811892</v>
@@ -11095,13 +11095,13 @@
         <v>-0.1343750000000341</v>
       </c>
       <c r="U136">
-        <v>0.9998902931367384</v>
+        <v>-0.000109706863261616</v>
       </c>
       <c r="V136">
-        <v>0.9998024019145059</v>
+        <v>-0.0001975980854941328</v>
       </c>
       <c r="W136">
-        <v>0.9996702934388394</v>
+        <v>-0.0003297065611606032</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11136,7 +11136,7 @@
         <v>0.5592462778369972</v>
       </c>
       <c r="K137">
-        <v>35.86644943689008</v>
+        <v>-0.1413355056310992</v>
       </c>
       <c r="L137">
         <v>-0.01209366427859268</v>
@@ -11166,13 +11166,13 @@
         <v>-0.1218750000000171</v>
       </c>
       <c r="U137">
-        <v>0.9999122248798581</v>
+        <v>-8.777512014190858E-05</v>
       </c>
       <c r="V137">
-        <v>0.9998243225438095</v>
+        <v>-0.000175677456190515</v>
       </c>
       <c r="W137">
-        <v>1.00032981530343</v>
+        <v>0.0003298153034301254</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11207,7 +11207,7 @@
         <v>0.5174015233978282</v>
       </c>
       <c r="K138">
-        <v>34.09786502910853</v>
+        <v>-0.1590213497089147</v>
       </c>
       <c r="L138">
         <v>-0.01229063858762103</v>
@@ -11237,13 +11237,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U138">
-        <v>0.9999012443215484</v>
+        <v>-9.875567845163413E-05</v>
       </c>
       <c r="V138">
-        <v>0.9997803645947725</v>
+        <v>-0.000219635405227514</v>
       </c>
       <c r="W138">
-        <v>0.9996702934388394</v>
+        <v>-0.0003297065611606032</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11278,7 +11278,7 @@
         <v>0.4796254724017156</v>
       </c>
       <c r="K139">
-        <v>32.4153295105951</v>
+        <v>-0.175846704894049</v>
       </c>
       <c r="L139">
         <v>-0.01249972522382545</v>
@@ -11308,13 +11308,13 @@
         <v>-0.09687499999998295</v>
       </c>
       <c r="U139">
-        <v>0.9999012345679014</v>
+        <v>-9.876543209863531E-05</v>
       </c>
       <c r="V139">
-        <v>0.9998022847100175</v>
+        <v>-0.0001977152899824697</v>
       </c>
       <c r="W139">
-        <v>0.99967018469657</v>
+        <v>-0.0003298153034300144</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11349,7 +11349,7 @@
         <v>0.4453951689102995</v>
       </c>
       <c r="K140">
-        <v>30.81476806416119</v>
+        <v>-0.1918523193583881</v>
       </c>
       <c r="L140">
         <v>-0.01277729788075328</v>
@@ -11379,13 +11379,13 @@
         <v>-0.09062499999996021</v>
       </c>
       <c r="U140">
-        <v>0.9999121998331796</v>
+        <v>-8.780016682041758E-05</v>
       </c>
       <c r="V140">
-        <v>0.9998242183208454</v>
+        <v>-0.0001757816791545519</v>
       </c>
       <c r="W140">
-        <v>0.999670075882547</v>
+        <v>-0.0003299241174530287</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11420,7 +11420,7 @@
         <v>0.5205202414624053</v>
       </c>
       <c r="K141">
-        <v>34.23303598785239</v>
+        <v>-0.1576696401214761</v>
       </c>
       <c r="L141">
         <v>-0.01291242327495106</v>
@@ -11450,13 +11450,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U141">
-        <v>0.9999121921236336</v>
+        <v>-8.780787636641918E-05</v>
       </c>
       <c r="V141">
-        <v>0.9998681405621609</v>
+        <v>-0.0001318594378391102</v>
       </c>
       <c r="W141">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033004784</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11491,7 +11491,7 @@
         <v>0.5205202414624054</v>
       </c>
       <c r="K142">
-        <v>34.2330359878524</v>
+        <v>-0.1576696401214759</v>
       </c>
       <c r="L142">
         <v>-0.012905695183984</v>
@@ -11521,13 +11521,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U142">
-        <v>0.9998902305159165</v>
+        <v>-0.0001097694840834773</v>
       </c>
       <c r="V142">
-        <v>0.9998901026441305</v>
+        <v>-0.000109897355869526</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11562,7 +11562,7 @@
         <v>0.5205202414624054</v>
       </c>
       <c r="K143">
-        <v>34.2330359878524</v>
+        <v>-0.1576696401214759</v>
       </c>
       <c r="L143">
         <v>-0.01276651826568214</v>
@@ -11592,13 +11592,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U143">
-        <v>0.9998902184652544</v>
+        <v>-0.0001097815347456121</v>
       </c>
       <c r="V143">
-        <v>0.999890090565374</v>
+        <v>-0.0001099094346259655</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11633,7 +11633,7 @@
         <v>0.4785855306181681</v>
       </c>
       <c r="K144">
-        <v>32.36779480846675</v>
+        <v>-0.1763220519153325</v>
       </c>
       <c r="L144">
         <v>-0.01262944616934466</v>
@@ -11663,13 +11663,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U144">
-        <v>0.9998682476943346</v>
+        <v>-0.0001317523056654224</v>
       </c>
       <c r="V144">
-        <v>0.9998900784839624</v>
+        <v>-0.0001099215160376144</v>
       </c>
       <c r="W144">
-        <v>0.999670075882547</v>
+        <v>-0.0003299241174530287</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11704,7 +11704,7 @@
         <v>0.5633887666357611</v>
       </c>
       <c r="K145">
-        <v>36.03638318625706</v>
+        <v>-0.1396361681374294</v>
       </c>
       <c r="L145">
         <v>-0.01233653537950484</v>
@@ -11734,13 +11734,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U145">
-        <v>0.9998901919444808</v>
+        <v>-0.0001098080555191894</v>
       </c>
       <c r="V145">
-        <v>0.9999340398399369</v>
+        <v>-6.596016006310546E-05</v>
       </c>
       <c r="W145">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033004784</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11775,7 +11775,7 @@
         <v>0.563388766635761</v>
       </c>
       <c r="K146">
-        <v>36.03638318625705</v>
+        <v>-0.1396361681374295</v>
       </c>
       <c r="L146">
         <v>-0.01192296629341469</v>
@@ -11805,13 +11805,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U146">
-        <v>0.9998901798853477</v>
+        <v>-0.0001098201146523259</v>
       </c>
       <c r="V146">
-        <v>0.9999120473185426</v>
+        <v>-8.795268145744828E-05</v>
       </c>
       <c r="W146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11846,7 +11846,7 @@
         <v>0.4094814057603785</v>
       </c>
       <c r="K147">
-        <v>29.05191966966559</v>
+        <v>-0.2094808033033441</v>
       </c>
       <c r="L147">
         <v>-0.01189911738750692</v>
@@ -11876,13 +11876,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U147">
-        <v>0.9998462349529922</v>
+        <v>-0.0001537650470078145</v>
       </c>
       <c r="V147">
-        <v>0.999846069268829</v>
+        <v>-0.0001539307311709814</v>
       </c>
       <c r="W147">
-        <v>0.998680303530188</v>
+        <v>-0.001319696469812004</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11917,7 +11917,7 @@
         <v>0.358007229679292</v>
       </c>
       <c r="K148">
-        <v>26.36268952440255</v>
+        <v>-0.2363731047559745</v>
       </c>
       <c r="L148">
         <v>-0.01230972509346416</v>
@@ -11947,13 +11947,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U148">
-        <v>0.9998571962124041</v>
+        <v>-0.0001428037875959021</v>
       </c>
       <c r="V148">
-        <v>0.9998240520805841</v>
+        <v>-0.0001759479194158864</v>
       </c>
       <c r="W148">
-        <v>0.9993392798149984</v>
+        <v>-0.0006607201850016287</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11988,7 +11988,7 @@
         <v>0.3357909850065708</v>
       </c>
       <c r="K149">
-        <v>25.13798856075668</v>
+        <v>-0.2486201143924332</v>
       </c>
       <c r="L149">
         <v>-0.01303281618266578</v>
@@ -12018,13 +12018,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U149">
-        <v>0.9998461893409213</v>
+        <v>-0.0001538106590787125</v>
       </c>
       <c r="V149">
-        <v>0.9998240211174658</v>
+        <v>-0.0001759788825341779</v>
       </c>
       <c r="W149">
-        <v>0.9996694214876032</v>
+        <v>-0.0003305785123968175</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12059,7 +12059,7 @@
         <v>0.3357909850065708</v>
       </c>
       <c r="K150">
-        <v>25.13798856075668</v>
+        <v>-0.2486201143924332</v>
       </c>
       <c r="L150">
         <v>-0.01385197901900594</v>
@@ -12089,13 +12089,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U150">
-        <v>0.9998132011823266</v>
+        <v>-0.0001867988176733615</v>
       </c>
       <c r="V150">
-        <v>0.9998019889113788</v>
+        <v>-0.0001980110886211639</v>
       </c>
       <c r="W150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12130,7 +12130,7 @@
         <v>0.3357909850065707</v>
       </c>
       <c r="K151">
-        <v>25.13798856075668</v>
+        <v>-0.2486201143924332</v>
       </c>
       <c r="L151">
         <v>-0.01462697288293153</v>
@@ -12160,13 +12160,13 @@
         <v>-0.1093749999999716</v>
       </c>
       <c r="U151">
-        <v>0.9998131662820088</v>
+        <v>-0.0001868337179912194</v>
       </c>
       <c r="V151">
-        <v>0.9998239552846424</v>
+        <v>-0.0001760447153575928</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12201,7 +12201,7 @@
         <v>0.2933296199255657</v>
       </c>
       <c r="K152">
-        <v>22.6801903711482</v>
+        <v>-0.273198096288518</v>
       </c>
       <c r="L152">
         <v>-0.01551289259288704</v>
@@ -12231,13 +12231,13 @@
         <v>-0.1281249999999829</v>
       </c>
       <c r="U152">
-        <v>0.9997911468237831</v>
+        <v>-0.0002088531762168833</v>
       </c>
       <c r="V152">
-        <v>0.9997578958952351</v>
+        <v>-0.0002421041047648842</v>
       </c>
       <c r="W152">
-        <v>0.9993386243386244</v>
+        <v>-0.000661375661375585</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12272,7 +12272,7 @@
         <v>0.2933296199255656</v>
       </c>
       <c r="K153">
-        <v>22.68019037114819</v>
+        <v>-0.2731980962885182</v>
       </c>
       <c r="L153">
         <v>-0.01635340402901805</v>
@@ -12302,13 +12302,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U153">
-        <v>0.9997801086263388</v>
+        <v>-0.0002198913736611852</v>
       </c>
       <c r="V153">
-        <v>0.9997798520605845</v>
+        <v>-0.0002201479394154937</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12343,7 +12343,7 @@
         <v>0.4334423867020533</v>
       </c>
       <c r="K154">
-        <v>30.23786590399925</v>
+        <v>-0.1976213409600075</v>
       </c>
       <c r="L154">
         <v>-0.01681341545388861</v>
@@ -12373,13 +12373,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U154">
-        <v>0.9998240482107902</v>
+        <v>-0.0001759517892098161</v>
       </c>
       <c r="V154">
-        <v>0.9998458625093585</v>
+        <v>-0.000154137490641526</v>
       </c>
       <c r="W154">
-        <v>1.00066181336863</v>
+        <v>0.0006618133686300265</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12414,7 +12414,7 @@
         <v>0.5809295096247138</v>
       </c>
       <c r="K155">
-        <v>36.74607286966366</v>
+        <v>-0.1325392713033633</v>
       </c>
       <c r="L155">
         <v>-0.01671226093584707</v>
@@ -12444,13 +12444,13 @@
         <v>-0.1593750000000114</v>
       </c>
       <c r="U155">
-        <v>0.9998680129347324</v>
+        <v>-0.0001319870652676247</v>
       </c>
       <c r="V155">
-        <v>0.9999119078556169</v>
+        <v>-8.809214438310065E-05</v>
       </c>
       <c r="W155">
-        <v>1.000661375661376</v>
+        <v>0.0006613756613758071</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12485,7 +12485,7 @@
         <v>0.6585543111629122</v>
       </c>
       <c r="K156">
-        <v>39.70652674624566</v>
+        <v>-0.1029347325375434</v>
       </c>
       <c r="L156">
         <v>-0.01609652576486088</v>
@@ -12515,13 +12515,13 @@
         <v>-0.1374999999999886</v>
       </c>
       <c r="U156">
-        <v>0.9998899962598727</v>
+        <v>-0.0001100037401272624</v>
       </c>
       <c r="V156">
-        <v>0.9999119000947073</v>
+        <v>-8.80999052926823E-05</v>
       </c>
       <c r="W156">
-        <v>1.000330469266358</v>
+        <v>0.0003304692663581577</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12556,7 +12556,7 @@
         <v>0.5660500522808126</v>
       </c>
       <c r="K157">
-        <v>36.14508051364074</v>
+        <v>-0.1385491948635926</v>
       </c>
       <c r="L157">
         <v>-0.01538981419501621</v>
@@ -12586,13 +12586,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U157">
-        <v>0.9998789825734905</v>
+        <v>-0.0001210174265094954</v>
       </c>
       <c r="V157">
-        <v>0.9998678384986452</v>
+        <v>-0.000132161501354755</v>
       </c>
       <c r="W157">
-        <v>0.9993392798149984</v>
+        <v>-0.0006607201850016287</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12627,7 +12627,7 @@
         <v>0.4931357077024486</v>
       </c>
       <c r="K158">
-        <v>33.02685115348675</v>
+        <v>-0.1697314884651325</v>
       </c>
       <c r="L158">
         <v>-0.01485731625105153</v>
@@ -12657,13 +12657,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U158">
-        <v>0.9998569620949553</v>
+        <v>-0.0001430379050446628</v>
       </c>
       <c r="V158">
-        <v>0.9998237613728991</v>
+        <v>-0.000176238627100922</v>
       </c>
       <c r="W158">
-        <v>0.9993388429752067</v>
+        <v>-0.0006611570247933019</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12698,7 +12698,7 @@
         <v>0.4618257362406679</v>
       </c>
       <c r="K159">
-        <v>31.59239331962583</v>
+        <v>-0.1840760668037417</v>
       </c>
       <c r="L159">
         <v>-0.01453050000194342</v>
@@ -12728,13 +12728,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U159">
-        <v>0.9998569416321859</v>
+        <v>-0.0001430583678141417</v>
       </c>
       <c r="V159">
-        <v>0.9998237303073703</v>
+        <v>-0.000176269692629738</v>
       </c>
       <c r="W159">
-        <v>0.9996692027786965</v>
+        <v>-0.0003307972213034693</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12769,7 +12769,7 @@
         <v>0.5286589916343284</v>
       </c>
       <c r="K160">
-        <v>34.58318660521701</v>
+        <v>-0.1541681339478299</v>
       </c>
       <c r="L160">
         <v>-0.01417616282259185</v>
@@ -12799,13 +12799,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U160">
-        <v>0.9998789332922441</v>
+        <v>-0.0001210667077559124</v>
       </c>
       <c r="V160">
-        <v>0.9998236992308879</v>
+        <v>-0.0001763007691121254</v>
       </c>
       <c r="W160">
-        <v>1.000330906684315</v>
+        <v>0.0003309066843151243</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12840,7 +12840,7 @@
         <v>0.5286589916343284</v>
       </c>
       <c r="K161">
-        <v>34.58318660521701</v>
+        <v>-0.1541681339478299</v>
       </c>
       <c r="L161">
         <v>-0.01377617519131516</v>
@@ -12870,13 +12870,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U161">
-        <v>0.9998679112363508</v>
+        <v>-0.0001320887636492296</v>
       </c>
       <c r="V161">
-        <v>0.9998236681434461</v>
+        <v>-0.0001763318565538574</v>
       </c>
       <c r="W161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12911,7 +12911,7 @@
         <v>0.6027124602145195</v>
       </c>
       <c r="K162">
-        <v>37.60577615612022</v>
+        <v>-0.1239422384387978</v>
       </c>
       <c r="L162">
         <v>-0.0132036688030026</v>
@@ -12941,13 +12941,13 @@
         <v>0.003125000000011369</v>
       </c>
       <c r="U162">
-        <v>0.999889911488837</v>
+        <v>-0.000110088511163009</v>
       </c>
       <c r="V162">
-        <v>0.9999338638918892</v>
+        <v>-6.613610811079251E-05</v>
       </c>
       <c r="W162">
-        <v>1.000330797221303</v>
+        <v>0.0003307972213031363</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12982,7 +12982,7 @@
         <v>0.5591278724905333</v>
       </c>
       <c r="K163">
-        <v>35.86157892215657</v>
+        <v>-0.1413842107784343</v>
       </c>
       <c r="L163">
         <v>-0.01263527498390357</v>
@@ -13012,13 +13012,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U163">
-        <v>0.9998898993680225</v>
+        <v>-0.0001101006319774722</v>
       </c>
       <c r="V163">
-        <v>0.999955906345077</v>
+        <v>-4.409365492297201E-05</v>
       </c>
       <c r="W163">
-        <v>0.9996693121693123</v>
+        <v>-0.0003306878306876815</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13053,7 +13053,7 @@
         <v>0.5591278724905333</v>
       </c>
       <c r="K164">
-        <v>35.86157892215657</v>
+        <v>-0.1413842107784343</v>
       </c>
       <c r="L164">
         <v>-0.01205961420226774</v>
@@ -13083,13 +13083,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U164">
-        <v>0.9999008985200845</v>
+        <v>-9.910147991554208E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999779522003706</v>
+        <v>-2.204779962944325E-05</v>
       </c>
       <c r="W164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13124,7 +13124,7 @@
         <v>0.4819017758627703</v>
       </c>
       <c r="K165">
-        <v>32.51914423155372</v>
+        <v>-0.1748085576844627</v>
       </c>
       <c r="L165">
         <v>-0.01171289999294025</v>
@@ -13154,13 +13154,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U165">
-        <v>0.9998678515973437</v>
+        <v>-0.0001321484026562958</v>
       </c>
       <c r="V165">
-        <v>0.9999338551427627</v>
+        <v>-6.614485723732688E-05</v>
       </c>
       <c r="W165">
-        <v>0.9993384055573934</v>
+        <v>-0.0006615944426066056</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13195,7 +13195,7 @@
         <v>0.4492443489473063</v>
       </c>
       <c r="K166">
-        <v>30.99852342178363</v>
+        <v>-0.1900147657821637</v>
       </c>
       <c r="L166">
         <v>-0.01160473553600555</v>
@@ -13225,13 +13225,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U166">
-        <v>0.9998678341318356</v>
+        <v>-0.0001321658681644466</v>
       </c>
       <c r="V166">
-        <v>0.9999118010231081</v>
+        <v>-8.819897689194001E-05</v>
       </c>
       <c r="W166">
-        <v>0.9996689837802052</v>
+        <v>-0.0003310162197948108</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13266,7 +13266,7 @@
         <v>0.5205788834524715</v>
       </c>
       <c r="K167">
-        <v>34.23557232825029</v>
+        <v>-0.1576442767174971</v>
       </c>
       <c r="L167">
         <v>-0.01148555650212796</v>
@@ -13296,13 +13296,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U167">
-        <v>0.9998678166617098</v>
+        <v>-0.0001321833382902371</v>
       </c>
       <c r="V167">
-        <v>0.9999779483108406</v>
+        <v>-2.205168915936362E-05</v>
       </c>
       <c r="W167">
-        <v>1.000331125827815</v>
+        <v>0.0003311258278146934</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13337,7 +13337,7 @@
         <v>0.4842193449567987</v>
       </c>
       <c r="K168">
-        <v>32.62451379589672</v>
+        <v>-0.1737548620410328</v>
       </c>
       <c r="L168">
         <v>-0.01144585992502833</v>
@@ -13367,13 +13367,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U168">
-        <v>0.9998677991869651</v>
+        <v>-0.0001322008130348884</v>
       </c>
       <c r="V168">
-        <v>0.9999558956491058</v>
+        <v>-4.410435089419185E-05</v>
       </c>
       <c r="W168">
-        <v>0.9996689837802052</v>
+        <v>-0.0003310162197948108</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13408,7 +13408,7 @@
         <v>0.6312602628006404</v>
       </c>
       <c r="K169">
-        <v>38.69770368321588</v>
+        <v>-0.1130229631678412</v>
       </c>
       <c r="L169">
         <v>-0.01117459451333199</v>
@@ -13438,13 +13438,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U169">
-        <v>0.9999008362806994</v>
+        <v>-9.916371930063228E-05</v>
       </c>
       <c r="V169">
-        <v>0.9999558937038263</v>
+        <v>-4.410629617368489E-05</v>
       </c>
       <c r="W169">
-        <v>1.000662251655629</v>
+        <v>0.0006622516556291647</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13479,7 +13479,7 @@
         <v>0.7086502195605792</v>
       </c>
       <c r="K170">
-        <v>41.47427082781318</v>
+        <v>-0.08525729172186819</v>
       </c>
       <c r="L170">
         <v>-0.01061926787006244</v>
@@ -13509,13 +13509,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U170">
-        <v>0.9999228650137741</v>
+        <v>-7.713498622585746E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999338376375625</v>
+        <v>-6.616236243750517E-05</v>
       </c>
       <c r="W170">
-        <v>1.000330906684315</v>
+        <v>0.0003309066843151243</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13550,7 +13550,7 @@
         <v>0.7086502195605792</v>
       </c>
       <c r="K171">
-        <v>41.47427082781318</v>
+        <v>-0.08525729172186819</v>
       </c>
       <c r="L171">
         <v>-0.009888504934215328</v>
@@ -13580,13 +13580,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U171">
-        <v>0.9999118389297245</v>
+        <v>-8.816107027553866E-05</v>
       </c>
       <c r="V171">
-        <v>0.999911777679753</v>
+        <v>-8.822232024696675E-05</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13621,7 +13621,7 @@
         <v>0.7086502195605792</v>
       </c>
       <c r="K172">
-        <v>41.47427082781318</v>
+        <v>-0.08525729172186819</v>
       </c>
       <c r="L172">
         <v>-0.009061966700434352</v>
@@ -13651,13 +13651,13 @@
         <v>-0.04062500000000568</v>
       </c>
       <c r="U172">
-        <v>0.9999118311566649</v>
+        <v>-8.816884333506803E-05</v>
       </c>
       <c r="V172">
-        <v>0.9999558849479443</v>
+        <v>-4.411505205570432E-05</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13692,7 +13692,7 @@
         <v>0.7989140559914228</v>
       </c>
       <c r="K173">
-        <v>44.41090742109539</v>
+        <v>-0.05589092578904614</v>
       </c>
       <c r="L173">
         <v>-0.008076655609256064</v>
@@ -13722,13 +13722,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U173">
-        <v>0.9999228454594553</v>
+        <v>-7.715454054468829E-05</v>
       </c>
       <c r="V173">
-        <v>1.00002205849914</v>
+        <v>2.205849913972102E-05</v>
       </c>
       <c r="W173">
-        <v>1.000330797221303</v>
+        <v>0.0003307972213031363</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13763,7 +13763,7 @@
         <v>0.798914055991423</v>
       </c>
       <c r="K174">
-        <v>44.41090742109539</v>
+        <v>-0.05589092578904614</v>
       </c>
       <c r="L174">
         <v>-0.007028472318550626</v>
@@ -13793,13 +13793,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U174">
-        <v>0.9999338624338625</v>
+        <v>-6.613756613749189E-05</v>
       </c>
       <c r="V174">
-        <v>1.000044116025146</v>
+        <v>4.411602514631241E-05</v>
       </c>
       <c r="W174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13834,7 +13834,7 @@
         <v>0.8989293872167916</v>
       </c>
       <c r="K175">
-        <v>47.33874746834729</v>
+        <v>-0.02661252531652714</v>
       </c>
       <c r="L175">
         <v>-0.005862958554459867</v>
@@ -13864,13 +13864,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U175">
-        <v>0.9999338580593955</v>
+        <v>-6.614194060450274E-05</v>
       </c>
       <c r="V175">
-        <v>1.000044114079008</v>
+        <v>4.411407900817288E-05</v>
       </c>
       <c r="W175">
-        <v>1.000330687830688</v>
+        <v>0.0003306878306879035</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13905,7 +13905,7 @@
         <v>1.109487979270139</v>
       </c>
       <c r="K176">
-        <v>52.59513162307805</v>
+        <v>0.02595131623078051</v>
       </c>
       <c r="L176">
         <v>-0.004438418896807886</v>
@@ -13935,13 +13935,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U176">
-        <v>0.999955902456233</v>
+        <v>-4.409754376699659E-05</v>
       </c>
       <c r="V176">
-        <v>1.000088224266084</v>
+        <v>8.822426608423584E-05</v>
       </c>
       <c r="W176">
-        <v>1.000661157024793</v>
+        <v>0.0006611570247934129</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13976,7 +13976,7 @@
         <v>0.9988005869869928</v>
       </c>
       <c r="K177">
-        <v>49.9699966814895</v>
+        <v>-0.0003000331851050198</v>
       </c>
       <c r="L177">
         <v>-0.003051924098823752</v>
@@ -14006,13 +14006,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U177">
-        <v>0.9999889751278885</v>
+        <v>-1.102487211146475E-05</v>
       </c>
       <c r="V177">
-        <v>1.000044108241625</v>
+        <v>4.410824162492943E-05</v>
       </c>
       <c r="W177">
-        <v>0.9996696399074992</v>
+        <v>-0.0003303600925007588</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14047,7 +14047,7 @@
         <v>0.9038795428852618</v>
       </c>
       <c r="K178">
-        <v>47.47566862951133</v>
+        <v>-0.02524331370488675</v>
       </c>
       <c r="L178">
         <v>-0.001886131355402049</v>
@@ -14077,13 +14077,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V178">
-        <v>1.000044106296174</v>
+        <v>4.410629617379591E-05</v>
       </c>
       <c r="W178">
-        <v>0.9996695307336417</v>
+        <v>-0.0003304692663582687</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14118,7 +14118,7 @@
         <v>1.003916416941924</v>
       </c>
       <c r="K179">
-        <v>50.09771906923894</v>
+        <v>0.0009771906923894402</v>
       </c>
       <c r="L179">
         <v>-0.0008010643164352333</v>
@@ -14148,13 +14148,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U179">
-        <v>1.000022049987321</v>
+        <v>2.204998732135977E-05</v>
       </c>
       <c r="V179">
-        <v>1.000066156526341</v>
+        <v>6.615652634134328E-05</v>
       </c>
       <c r="W179">
-        <v>1.000330578512397</v>
+        <v>0.0003305785123968175</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14189,7 +14189,7 @@
         <v>1.003916416941923</v>
       </c>
       <c r="K180">
-        <v>50.09771906923893</v>
+        <v>0.0009771906923892182</v>
       </c>
       <c r="L180">
         <v>0.0001688563741199154</v>
@@ -14219,13 +14219,13 @@
         <v>0.09374999999997158</v>
       </c>
       <c r="U180">
-        <v>1.00002204950113</v>
+        <v>2.204950113005033E-05</v>
       </c>
       <c r="V180">
-        <v>1.000110253583242</v>
+        <v>0.0001102535832415708</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14260,7 +14260,7 @@
         <v>1.114760598722095</v>
       </c>
       <c r="K181">
-        <v>52.71332364503676</v>
+        <v>0.02713323645036758</v>
       </c>
       <c r="L181">
         <v>0.001126999353558521</v>
@@ -14290,13 +14290,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U181">
-        <v>1.00003307352244</v>
+        <v>3.307352244030781E-05</v>
       </c>
       <c r="V181">
-        <v>1.00015433800022</v>
+        <v>0.0001543380002202444</v>
       </c>
       <c r="W181">
-        <v>1.000330469266358</v>
+        <v>0.0003304692663581577</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14331,7 +14331,7 @@
         <v>1.114760598722095</v>
       </c>
       <c r="K182">
-        <v>52.71332364503677</v>
+        <v>0.02713323645036769</v>
       </c>
       <c r="L182">
         <v>0.002012822178901883</v>
@@ -14361,13 +14361,13 @@
         <v>0.09062500000001705</v>
       </c>
       <c r="U182">
-        <v>1.000055120714364</v>
+        <v>5.512071436442056E-05</v>
       </c>
       <c r="V182">
-        <v>1.000132269300295</v>
+        <v>0.0001322693002954178</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14402,7 +14402,7 @@
         <v>0.9928230293672731</v>
       </c>
       <c r="K183">
-        <v>49.81992955403055</v>
+        <v>-0.001800704459694491</v>
       </c>
       <c r="L183">
         <v>0.002670607311509601</v>
@@ -14432,13 +14432,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U183">
-        <v>1.000044094140991</v>
+        <v>4.409414099093567E-05</v>
       </c>
       <c r="V183">
-        <v>1.000132251807442</v>
+        <v>0.0001322518074415857</v>
       </c>
       <c r="W183">
-        <v>0.9996696399074992</v>
+        <v>-0.0003303600925007588</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14473,7 +14473,7 @@
         <v>1.453389491117525</v>
       </c>
       <c r="K184">
-        <v>59.2400634460818</v>
+        <v>0.09240063446081803</v>
       </c>
       <c r="L184">
         <v>0.003620238043901562</v>
@@ -14503,13 +14503,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U184">
-        <v>1.000066138295175</v>
+        <v>6.613829517543302E-05</v>
       </c>
       <c r="V184">
-        <v>1.000176312425618</v>
+        <v>0.0001763124256182191</v>
       </c>
       <c r="W184">
-        <v>1.001321877065433</v>
+        <v>0.001321877065432853</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14544,7 +14544,7 @@
         <v>1.574591191578153</v>
       </c>
       <c r="K185">
-        <v>61.15888210636547</v>
+        <v>0.1115888210636548</v>
       </c>
       <c r="L185">
         <v>0.004793316923474948</v>
@@ -14574,13 +14574,13 @@
         <v>0.07187500000000568</v>
       </c>
       <c r="U185">
-        <v>1.000055111600992</v>
+        <v>5.511160099191947E-05</v>
       </c>
       <c r="V185">
-        <v>1.000176281345027</v>
+        <v>0.0001762813450265632</v>
       </c>
       <c r="W185">
-        <v>1.0003300330033</v>
+        <v>0.0003300330033004784</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14615,7 +14615,7 @@
         <v>1.254492926507538</v>
       </c>
       <c r="K186">
-        <v>55.64412785498901</v>
+        <v>0.05644127854989012</v>
       </c>
       <c r="L186">
         <v>0.005768644107555951</v>
@@ -14645,13 +14645,13 @@
         <v>0.07812499999997158</v>
       </c>
       <c r="U186">
-        <v>1.000022043425548</v>
+        <v>2.204342554823491E-05</v>
       </c>
       <c r="V186">
-        <v>1.000132187706543</v>
+        <v>0.0001321877065434407</v>
       </c>
       <c r="W186">
-        <v>0.9993401517650938</v>
+        <v>-0.0006598482349061685</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14686,7 +14686,7 @@
         <v>1.361487536912378</v>
       </c>
       <c r="K187">
-        <v>57.65380996642946</v>
+        <v>0.07653809966429459</v>
       </c>
       <c r="L187">
         <v>0.006661340105004968</v>
@@ -14716,13 +14716,13 @@
         <v>0.08124999999998295</v>
       </c>
       <c r="U187">
-        <v>1.000055107349116</v>
+        <v>5.510734911617909E-05</v>
       </c>
       <c r="V187">
-        <v>1.000154198607807</v>
+        <v>0.0001541986078066326</v>
       </c>
       <c r="W187">
-        <v>1.000330141961043</v>
+        <v>0.0003301419610433065</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14757,7 +14757,7 @@
         <v>1.361487536912378</v>
       </c>
       <c r="K188">
-        <v>57.65380996642946</v>
+        <v>0.07653809966429459</v>
       </c>
       <c r="L188">
         <v>0.00742274793089584</v>
@@ -14787,13 +14787,13 @@
         <v>0.08437499999999432</v>
       </c>
       <c r="U188">
-        <v>1.000077146037449</v>
+        <v>7.71460374486832E-05</v>
       </c>
       <c r="V188">
-        <v>1.000132149857939</v>
+        <v>0.0001321498579389679</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14828,7 +14828,7 @@
         <v>0.9235343194046787</v>
       </c>
       <c r="K189">
-        <v>48.01236505572236</v>
+        <v>-0.01987634944277644</v>
       </c>
       <c r="L189">
         <v>0.007547472932157513</v>
@@ -14858,13 +14858,13 @@
         <v>0.07187499999997726</v>
       </c>
       <c r="U189">
-        <v>1.00004408004937</v>
+        <v>4.408004936995447E-05</v>
       </c>
       <c r="V189">
-        <v>1.00004404413222</v>
+        <v>4.404413222025561E-05</v>
       </c>
       <c r="W189">
-        <v>0.9986798679867988</v>
+        <v>-0.001320132013201247</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14899,7 +14899,7 @@
         <v>1.177486361390853</v>
       </c>
       <c r="K190">
-        <v>54.07548732653105</v>
+        <v>0.04075487326531047</v>
       </c>
       <c r="L190">
         <v>0.00761222839594296</v>
@@ -14929,13 +14929,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U190">
-        <v>1.000066117159607</v>
+        <v>6.611715960658238E-05</v>
       </c>
       <c r="V190">
-        <v>1.000088084384841</v>
+        <v>8.808438484075864E-05</v>
       </c>
       <c r="W190">
-        <v>1.000991407799074</v>
+        <v>0.000991407799074473</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14970,7 +14970,7 @@
         <v>1.081149478010824</v>
       </c>
       <c r="K191">
-        <v>51.94963117421981</v>
+        <v>0.01949631174219812</v>
       </c>
       <c r="L191">
         <v>0.007488417161464646</v>
@@ -15000,13 +15000,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U191">
-        <v>1.000055093990347</v>
+        <v>5.509399034742124E-05</v>
       </c>
       <c r="V191">
-        <v>1.000022019156666</v>
+        <v>2.201915666621979E-05</v>
       </c>
       <c r="W191">
-        <v>0.9996698580389569</v>
+        <v>-0.0003301419610430845</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15041,7 +15041,7 @@
         <v>0.9222907907913377</v>
       </c>
       <c r="K192">
-        <v>47.97873428981386</v>
+        <v>-0.02021265710186138</v>
       </c>
       <c r="L192">
         <v>0.006990293804842705</v>
@@ -15071,13 +15071,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U192">
-        <v>1.000022036382067</v>
+        <v>2.203638206688119E-05</v>
       </c>
       <c r="V192">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W192">
-        <v>0.9993394980184941</v>
+        <v>-0.0006605019815059121</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15112,7 +15112,7 @@
         <v>0.9222907907913378</v>
       </c>
       <c r="K193">
-        <v>47.97873428981387</v>
+        <v>-0.02021265710186126</v>
       </c>
       <c r="L193">
         <v>0.006271760129500802</v>
@@ -15142,13 +15142,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U193">
-        <v>1.000033053844713</v>
+        <v>3.305384471308237E-05</v>
       </c>
       <c r="V193">
-        <v>1.000022018671834</v>
+        <v>2.201867183360129E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15183,7 +15183,7 @@
         <v>0.9222907907913377</v>
       </c>
       <c r="K194">
-        <v>47.97873428981386</v>
+        <v>-0.02021265710186138</v>
       </c>
       <c r="L194">
         <v>0.005442697250387122</v>
@@ -15213,13 +15213,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U194">
-        <v>1.000033052752193</v>
+        <v>3.305275219256387E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15254,7 +15254,7 @@
         <v>0.9222907907913376</v>
       </c>
       <c r="K195">
-        <v>47.97873428981386</v>
+        <v>-0.02021265710186138</v>
       </c>
       <c r="L195">
         <v>0.004579718823586081</v>
@@ -15284,13 +15284,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U195">
-        <v>1.000055086099574</v>
+        <v>5.50860995736091E-05</v>
       </c>
       <c r="V195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15325,7 +15325,7 @@
         <v>0.8459840370850454</v>
       </c>
       <c r="K196">
-        <v>45.82835062977689</v>
+        <v>-0.04171649370223107</v>
       </c>
       <c r="L196">
         <v>0.003614204517690749</v>
@@ -15355,13 +15355,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U196">
-        <v>1.000055083065262</v>
+        <v>5.50830652623624E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999559636259551</v>
+        <v>-4.403637404493121E-05</v>
       </c>
       <c r="W196">
-        <v>0.9996695307336417</v>
+        <v>-0.0003304692663582687</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15396,7 +15396,7 @@
         <v>0.9330746807737722</v>
       </c>
       <c r="K197">
-        <v>48.26894118753242</v>
+        <v>-0.01731058812467579</v>
       </c>
       <c r="L197">
         <v>0.002755281601322893</v>
@@ -15426,13 +15426,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U197">
-        <v>1.000055080031286</v>
+        <v>5.508003128551486E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999779808433339</v>
+        <v>-2.201915666610876E-05</v>
       </c>
       <c r="W197">
-        <v>1.000330578512397</v>
+        <v>0.0003305785123968175</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15467,7 +15467,7 @@
         <v>1.116423404328934</v>
       </c>
       <c r="K198">
-        <v>52.75047526149072</v>
+        <v>0.02750475261490726</v>
       </c>
       <c r="L198">
         <v>0.002246266941311017</v>
@@ -15497,13 +15497,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U198">
-        <v>1.000088123196228</v>
+        <v>8.812319622841791E-05</v>
       </c>
       <c r="V198">
-        <v>1.00004403928304</v>
+        <v>4.403928304030913E-05</v>
       </c>
       <c r="W198">
-        <v>1.000660938532716</v>
+        <v>0.0006609385327163153</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15538,7 +15538,7 @@
         <v>0.9358127927170742</v>
       </c>
       <c r="K199">
-        <v>48.34211222478714</v>
+        <v>-0.01657887775212857</v>
       </c>
       <c r="L199">
         <v>0.001732843242349866</v>
@@ -15568,13 +15568,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U199">
-        <v>1.000044057715608</v>
+        <v>4.405771560755944E-05</v>
       </c>
       <c r="V199">
-        <v>0.9999119253126653</v>
+        <v>-8.807468733473822E-05</v>
       </c>
       <c r="W199">
-        <v>0.9993394980184941</v>
+        <v>-0.0006605019815059121</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15609,7 +15609,7 @@
         <v>1.020958102524452</v>
       </c>
       <c r="K200">
-        <v>50.51851897617946</v>
+        <v>0.005185189761794606</v>
       </c>
       <c r="L200">
         <v>0.001363471150542329</v>
@@ -15639,13 +15639,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U200">
-        <v>1.00004405577461</v>
+        <v>4.405577461041865E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999119175548314</v>
+        <v>-8.808244516855801E-05</v>
       </c>
       <c r="W200">
-        <v>1.000330469266358</v>
+        <v>0.0003304692663581577</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15680,7 +15680,7 @@
         <v>1.020958102524451</v>
       </c>
       <c r="K201">
-        <v>50.51851897617946</v>
+        <v>0.005185189761794606</v>
       </c>
       <c r="L201">
         <v>0.001099937382623499</v>
@@ -15710,13 +15710,13 @@
         <v>-0.04062499999997726</v>
       </c>
       <c r="U201">
-        <v>1.000044053833785</v>
+        <v>4.405383378514038E-05</v>
       </c>
       <c r="V201">
-        <v>0.9999559548978152</v>
+        <v>-4.404510218480873E-05</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15751,7 +15751,7 @@
         <v>0.7957389213996257</v>
       </c>
       <c r="K202">
-        <v>44.31261760364445</v>
+        <v>-0.05687382396355545</v>
       </c>
       <c r="L202">
         <v>0.0005523809372640692</v>
@@ -15781,13 +15781,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U202">
-        <v>1.000011012973282</v>
+        <v>1.101297328243156E-05</v>
       </c>
       <c r="V202">
-        <v>0.9998678588732768</v>
+        <v>-0.0001321411267232175</v>
       </c>
       <c r="W202">
-        <v>0.9990089197224975</v>
+        <v>-0.0009910802775024985</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15822,7 +15822,7 @@
         <v>0.9505430683739302</v>
       </c>
       <c r="K203">
-        <v>48.73222661862833</v>
+        <v>-0.01267773381371667</v>
       </c>
       <c r="L203">
         <v>0.0001062603162701302</v>
@@ -15852,13 +15852,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U203">
-        <v>1.000022025703996</v>
+        <v>2.202570399645332E-05</v>
       </c>
       <c r="V203">
-        <v>0.9999118942731277</v>
+        <v>-8.810572687234508E-05</v>
       </c>
       <c r="W203">
-        <v>1.000661375661376</v>
+        <v>0.0006613756613758071</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15893,7 +15893,7 @@
         <v>0.9505430683739303</v>
       </c>
       <c r="K204">
-        <v>48.73222661862833</v>
+        <v>-0.01267773381371667</v>
       </c>
       <c r="L204">
         <v>-0.0002503706915972826</v>
@@ -15923,13 +15923,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U204">
-        <v>1.000022025218876</v>
+        <v>2.202521887562092E-05</v>
       </c>
       <c r="V204">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15964,7 +15964,7 @@
         <v>0.9505430683739303</v>
       </c>
       <c r="K205">
-        <v>48.73222661862833</v>
+        <v>-0.01267773381371667</v>
       </c>
       <c r="L205">
         <v>-0.0005291524680490115</v>
@@ -15994,13 +15994,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U205">
-        <v>1.000011012366888</v>
+        <v>1.101236688794138E-05</v>
       </c>
       <c r="V205">
-        <v>0.9999339148823684</v>
+        <v>-6.608511763162017E-05</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16035,7 +16035,7 @@
         <v>0.871835527808652</v>
       </c>
       <c r="K206">
-        <v>46.57650284206889</v>
+        <v>-0.0342349715793111</v>
       </c>
       <c r="L206">
         <v>-0.0008613912976485645</v>
@@ -16065,13 +16065,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U206">
-        <v>0.9999779755087658</v>
+        <v>-2.202449123422934E-05</v>
       </c>
       <c r="V206">
-        <v>0.9999339105148374</v>
+        <v>-6.60894851626237E-05</v>
       </c>
       <c r="W206">
-        <v>0.9996695307336417</v>
+        <v>-0.0003304692663582687</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16106,7 +16106,7 @@
         <v>0.9589962735516327</v>
       </c>
       <c r="K207">
-        <v>48.95345062668169</v>
+        <v>-0.01046549373318306</v>
       </c>
       <c r="L207">
         <v>-0.001081402968893161</v>
@@ -16136,13 +16136,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V207">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W207">
-        <v>1.000330578512397</v>
+        <v>0.0003305785123968175</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16177,7 +16177,7 @@
         <v>0.9589962735516326</v>
       </c>
       <c r="K208">
-        <v>48.95345062668169</v>
+        <v>-0.01046549373318312</v>
       </c>
       <c r="L208">
         <v>-0.001215468554942018</v>
@@ -16207,13 +16207,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U208">
-        <v>1.000011012488162</v>
+        <v>1.101248816159917E-05</v>
       </c>
       <c r="V208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16248,7 +16248,7 @@
         <v>0.8745361888942911</v>
       </c>
       <c r="K209">
-        <v>46.65347055316882</v>
+        <v>-0.03346529446831181</v>
       </c>
       <c r="L209">
         <v>-0.00140481054315893</v>
@@ -16278,13 +16278,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U209">
-        <v>0.9999889876331119</v>
+        <v>-1.101236688805241E-05</v>
       </c>
       <c r="V209">
-        <v>0.9999779687155761</v>
+        <v>-2.203128442390678E-05</v>
       </c>
       <c r="W209">
-        <v>0.9996695307336417</v>
+        <v>-0.0003304692663582687</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16319,7 +16319,7 @@
         <v>0.7377478871939156</v>
       </c>
       <c r="K210">
-        <v>42.45425315321302</v>
+        <v>-0.07545746846786977</v>
       </c>
       <c r="L210">
         <v>-0.001851095214419168</v>
@@ -16349,13 +16349,13 @@
         <v>-0.01875000000003979</v>
       </c>
       <c r="U210">
-        <v>0.9999669625355151</v>
+        <v>-3.303746448490852E-05</v>
       </c>
       <c r="V210">
-        <v>0.9999339046905639</v>
+        <v>-6.609530943613162E-05</v>
       </c>
       <c r="W210">
-        <v>0.9993388429752067</v>
+        <v>-0.0006611570247933019</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16390,7 +16390,7 @@
         <v>0.9023925157740597</v>
       </c>
       <c r="K211">
-        <v>47.43461237844954</v>
+        <v>-0.02565387621550458</v>
       </c>
       <c r="L211">
         <v>-0.002177250802303993</v>
@@ -16420,13 +16420,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U211">
-        <v>0.9999779742960037</v>
+        <v>-2.202570399634229E-05</v>
       </c>
       <c r="V211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W211">
-        <v>1.000661594442607</v>
+        <v>0.0006615944426067166</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16461,7 +16461,7 @@
         <v>0.7690997363683235</v>
       </c>
       <c r="K212">
-        <v>43.47407444348848</v>
+        <v>-0.06525925556511519</v>
       </c>
       <c r="L212">
         <v>-0.002642563089869749</v>
@@ -16491,13 +16491,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U212">
-        <v>0.9999559476217222</v>
+        <v>-4.40523782777591E-05</v>
       </c>
       <c r="V212">
-        <v>0.9999339003216848</v>
+        <v>-6.609967831516794E-05</v>
       </c>
       <c r="W212">
-        <v>0.9993388429752067</v>
+        <v>-0.0006611570247933019</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16532,7 +16532,7 @@
         <v>0.9245843912114422</v>
       </c>
       <c r="K213">
-        <v>48.04073001077685</v>
+        <v>-0.0195926998922315</v>
       </c>
       <c r="L213">
         <v>-0.00291228738213243</v>
@@ -16562,13 +16562,13 @@
         <v>-0.03749999999996589</v>
       </c>
       <c r="U213">
-        <v>0.9999889864202561</v>
+        <v>-1.101357974386818E-05</v>
       </c>
       <c r="V213">
-        <v>0.999933895952229</v>
+        <v>-6.610404777096512E-05</v>
       </c>
       <c r="W213">
-        <v>1.000661594442607</v>
+        <v>0.0006615944426067166</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16603,7 +16603,7 @@
         <v>0.854645321317556</v>
       </c>
       <c r="K214">
-        <v>46.08133487811075</v>
+        <v>-0.03918665121889253</v>
       </c>
       <c r="L214">
         <v>-0.003156055430264172</v>
@@ -16633,13 +16633,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U214">
-        <v>0.9999339177937353</v>
+        <v>-6.608220626469485E-05</v>
       </c>
       <c r="V214">
-        <v>0.9999559277214632</v>
+        <v>-4.407227853675533E-05</v>
       </c>
       <c r="W214">
-        <v>0.9996694214876032</v>
+        <v>-0.0003305785123968175</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16674,7 +16674,7 @@
         <v>1.013895410919546</v>
       </c>
       <c r="K215">
-        <v>50.34498839523155</v>
+        <v>0.003449883952315491</v>
       </c>
       <c r="L215">
         <v>-0.003116424902799034</v>
@@ -16704,13 +16704,13 @@
         <v>-0.03124999999997158</v>
       </c>
       <c r="U215">
-        <v>0.9999449278554907</v>
+        <v>-5.507214450928277E-05</v>
       </c>
       <c r="V215">
-        <v>0.9999779628895059</v>
+        <v>-2.203711049408863E-05</v>
       </c>
       <c r="W215">
-        <v>1.000661375661376</v>
+        <v>0.0006613756613758071</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16745,7 +16745,7 @@
         <v>0.9354868019549148</v>
       </c>
       <c r="K216">
-        <v>48.33341157428911</v>
+        <v>-0.01666588425710891</v>
       </c>
       <c r="L216">
         <v>-0.003016598886836043</v>
@@ -16775,13 +16775,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U216">
-        <v>0.9999559398579061</v>
+        <v>-4.406014209390463E-05</v>
       </c>
       <c r="V216">
-        <v>0.9999559248077218</v>
+        <v>-4.407519227822565E-05</v>
       </c>
       <c r="W216">
-        <v>0.9996695307336417</v>
+        <v>-0.0003304692663582687</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16816,7 +16816,7 @@
         <v>0.8650667102625066</v>
       </c>
       <c r="K217">
-        <v>46.38261492216272</v>
+        <v>-0.03617385077837282</v>
       </c>
       <c r="L217">
         <v>-0.002996017319324339</v>
@@ -16846,13 +16846,13 @@
         <v>-0.02812500000001705</v>
       </c>
       <c r="U217">
-        <v>0.9999339068747864</v>
+        <v>-6.609312521355104E-05</v>
       </c>
       <c r="V217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W217">
-        <v>0.9996694214876032</v>
+        <v>-0.0003305785123968175</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16887,7 +16887,7 @@
         <v>0.8015529896289438</v>
       </c>
       <c r="K218">
-        <v>44.49233490456672</v>
+        <v>-0.05507665095433284</v>
       </c>
       <c r="L218">
         <v>-0.003134197952089206</v>
@@ -16917,13 +16917,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U218">
-        <v>0.9999228862572295</v>
+        <v>-7.711374277052929E-05</v>
       </c>
       <c r="V218">
-        <v>0.9999338842975209</v>
+        <v>-6.611570247905263E-05</v>
       </c>
       <c r="W218">
-        <v>0.9996693121693123</v>
+        <v>-0.0003306878306876815</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16958,7 +16958,7 @@
         <v>0.8015529896289439</v>
       </c>
       <c r="K219">
-        <v>44.49233490456673</v>
+        <v>-0.05507665095433273</v>
       </c>
       <c r="L219">
         <v>-0.003348364932752204</v>
@@ -16988,13 +16988,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U219">
-        <v>0.9999669487043893</v>
+        <v>-3.305129561070874E-05</v>
       </c>
       <c r="V219">
-        <v>0.9999338799259452</v>
+        <v>-6.612007405482068E-05</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17029,7 +17029,7 @@
         <v>0.8829054597754875</v>
       </c>
       <c r="K220">
-        <v>46.89058896673244</v>
+        <v>-0.03109411033267556</v>
       </c>
       <c r="L220">
         <v>-0.003462397769310867</v>
@@ -17059,13 +17059,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U220">
-        <v>0.9999449126866083</v>
+        <v>-5.508731339165518E-05</v>
       </c>
       <c r="V220">
-        <v>0.9999559170358615</v>
+        <v>-4.408296413849211E-05</v>
       </c>
       <c r="W220">
-        <v>1.000330797221303</v>
+        <v>0.0003307972213031363</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17100,7 +17100,7 @@
         <v>0.8829054597754876</v>
       </c>
       <c r="K221">
-        <v>46.89058896673244</v>
+        <v>-0.03109411033267556</v>
       </c>
       <c r="L221">
         <v>-0.003495895764748493</v>
@@ -17130,13 +17130,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U221">
-        <v>0.9999559277214632</v>
+        <v>-4.407227853675533E-05</v>
       </c>
       <c r="V221">
-        <v>0.9999779575462339</v>
+        <v>-2.204245376613567E-05</v>
       </c>
       <c r="W221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17171,7 +17171,7 @@
         <v>0.8829054597754877</v>
       </c>
       <c r="K222">
-        <v>46.89058896673245</v>
+        <v>-0.03109411033267551</v>
       </c>
       <c r="L222">
         <v>-0.003465741157963388</v>
@@ -17201,13 +17201,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U222">
-        <v>0.9999779628895058</v>
+        <v>-2.203711049419965E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999559141207074</v>
+        <v>-4.408587929261021E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17242,7 +17242,7 @@
         <v>0.8829054597754877</v>
       </c>
       <c r="K223">
-        <v>46.89058896673245</v>
+        <v>-0.03109411033267551</v>
       </c>
       <c r="L223">
         <v>-0.003386326600564936</v>
@@ -17272,13 +17272,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U223">
-        <v>0.9999779624038612</v>
+        <v>-2.203759613883527E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999559121770566</v>
+        <v>-4.408782294340607E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17313,7 +17313,7 @@
         <v>0.8829054597754876</v>
       </c>
       <c r="K224">
-        <v>46.89058896673244</v>
+        <v>-0.03109411033267556</v>
       </c>
       <c r="L224">
         <v>-0.003269799073183177</v>
@@ -17343,13 +17343,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U224">
-        <v>0.9999779619181944</v>
+        <v>-2.203808180556432E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999779551166175</v>
+        <v>-2.204488338253263E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17384,7 +17384,7 @@
         <v>0.7989109164488699</v>
       </c>
       <c r="K225">
-        <v>44.41081040443935</v>
+        <v>-0.05589189595560656</v>
       </c>
       <c r="L225">
         <v>-0.003246675956592969</v>
@@ -17414,13 +17414,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U225">
-        <v>0.9999669421487604</v>
+        <v>-3.305785123963734E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>0.9996693121693123</v>
+        <v>-0.0003306878306876815</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17455,7 +17455,7 @@
         <v>0.7989109164488699</v>
       </c>
       <c r="K226">
-        <v>44.41081040443935</v>
+        <v>-0.05589189595560656</v>
       </c>
       <c r="L226">
         <v>-0.00326980400083101</v>
@@ -17485,13 +17485,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U226">
-        <v>0.9999779607039352</v>
+        <v>-2.203929606481303E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999559092612598</v>
+        <v>-4.409073874023228E-05</v>
       </c>
       <c r="W226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17526,7 +17526,7 @@
         <v>0.79891091644887</v>
       </c>
       <c r="K227">
-        <v>44.41081040443935</v>
+        <v>-0.05589189595560656</v>
       </c>
       <c r="L227">
         <v>-0.003307582806004099</v>
@@ -17556,13 +17556,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U227">
-        <v>0.9999669403272908</v>
+        <v>-3.30596727091681E-05</v>
       </c>
       <c r="V227">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17597,7 +17597,7 @@
         <v>0.719117689824771</v>
       </c>
       <c r="K228">
-        <v>41.83062591241617</v>
+        <v>-0.08169374087583825</v>
       </c>
       <c r="L228">
         <v>-0.003460176390025351</v>
@@ -17627,13 +17627,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U228">
-        <v>0.999933878468625</v>
+        <v>-6.612153137497412E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999338609757707</v>
+        <v>-6.613902422925033E-05</v>
       </c>
       <c r="W228">
-        <v>0.9996692027786965</v>
+        <v>-0.0003307972213034693</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17668,7 +17668,7 @@
         <v>0.7191176898247709</v>
       </c>
       <c r="K229">
-        <v>41.83062591241617</v>
+        <v>-0.08169374087583825</v>
       </c>
       <c r="L229">
         <v>-0.00366002631534129</v>
@@ -17698,13 +17698,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U229">
-        <v>0.9999559160641864</v>
+        <v>-4.408393581356584E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999559044007409</v>
+        <v>-4.409559925910855E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17739,7 +17739,7 @@
         <v>0.5887963427318597</v>
       </c>
       <c r="K230">
-        <v>37.05927102774245</v>
+        <v>-0.1294072897225755</v>
       </c>
       <c r="L230">
         <v>-0.004103242593488274</v>
@@ -17769,13 +17769,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U230">
-        <v>0.9999228497112376</v>
+        <v>-7.715028876242869E-05</v>
       </c>
       <c r="V230">
-        <v>0.9998677073686995</v>
+        <v>-0.0001322926313005457</v>
       </c>
       <c r="W230">
-        <v>0.99933818663137</v>
+        <v>-0.0006618133686300265</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17810,7 +17810,7 @@
         <v>0.5887963427318597</v>
       </c>
       <c r="K231">
-        <v>37.05927102774245</v>
+        <v>-0.1294072897225755</v>
       </c>
       <c r="L231">
         <v>-0.004650764480056067</v>
@@ -17840,13 +17840,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U231">
-        <v>0.9999228437586111</v>
+        <v>-7.715624138893151E-05</v>
       </c>
       <c r="V231">
-        <v>0.9998897415542032</v>
+        <v>-0.0001102584457968181</v>
       </c>
       <c r="W231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17881,7 +17881,7 @@
         <v>0.5887963427318595</v>
       </c>
       <c r="K232">
-        <v>37.05927102774245</v>
+        <v>-0.1294072897225755</v>
       </c>
       <c r="L232">
         <v>-0.005209705372497439</v>
@@ -17911,13 +17911,13 @@
         <v>-0.05312499999999432</v>
       </c>
       <c r="U232">
-        <v>0.9999559073171808</v>
+        <v>-4.409268281924117E-05</v>
       </c>
       <c r="V232">
-        <v>0.9999117835167501</v>
+        <v>-8.821648324985887E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17952,7 +17952,7 @@
         <v>0.5887963427318595</v>
       </c>
       <c r="K233">
-        <v>37.05927102774245</v>
+        <v>-0.1294072897225755</v>
       </c>
       <c r="L233">
         <v>-0.005721027474453523</v>
@@ -17982,13 +17982,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U233">
-        <v>0.9999338580593954</v>
+        <v>-6.614194060461376E-05</v>
       </c>
       <c r="V233">
-        <v>0.9999338318004366</v>
+        <v>-6.616819956339892E-05</v>
       </c>
       <c r="W233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18023,7 +18023,7 @@
         <v>0.7000440761717591</v>
       </c>
       <c r="K234">
-        <v>41.1779956757446</v>
+        <v>-0.088220043242554</v>
       </c>
       <c r="L234">
         <v>-0.006029718676045318</v>
@@ -18053,13 +18053,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U234">
-        <v>0.9999448780702918</v>
+        <v>-5.512192970824614E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999558849479443</v>
+        <v>-4.411505205570432E-05</v>
       </c>
       <c r="W234">
-        <v>1.000331125827815</v>
+        <v>0.0003311258278146934</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18094,7 +18094,7 @@
         <v>0.9342498307820075</v>
       </c>
       <c r="K235">
-        <v>48.30037029933693</v>
+        <v>-0.01699629700663075</v>
       </c>
       <c r="L235">
         <v>-0.005933196233545211</v>
@@ -18124,13 +18124,13 @@
         <v>-0.06562500000001137</v>
       </c>
       <c r="U235">
-        <v>0.999966925019018</v>
+        <v>-3.307498098203965E-05</v>
       </c>
       <c r="V235">
-        <v>0.9999779415008605</v>
+        <v>-2.205849913949898E-05</v>
       </c>
       <c r="W235">
-        <v>1.000662032439589</v>
+        <v>0.0006620324395893995</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18165,7 +18165,7 @@
         <v>0.7494789953414959</v>
       </c>
       <c r="K236">
-        <v>42.84012539374321</v>
+        <v>-0.07159874606256783</v>
       </c>
       <c r="L236">
         <v>-0.005816544009361559</v>
@@ -18195,13 +18195,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U236">
-        <v>0.9999558985667034</v>
+        <v>-4.410143329658389E-05</v>
       </c>
       <c r="V236">
-        <v>0.9999338230428164</v>
+        <v>-6.617695718358352E-05</v>
       </c>
       <c r="W236">
-        <v>0.9993384055573934</v>
+        <v>-0.0006615944426066056</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18236,7 +18236,7 @@
         <v>0.7494789953414961</v>
       </c>
       <c r="K237">
-        <v>42.84012539374323</v>
+        <v>-0.07159874606256772</v>
       </c>
       <c r="L237">
         <v>-0.005673961038439848</v>
@@ -18266,13 +18266,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U237">
-        <v>0.9999448707771016</v>
+        <v>-5.512922289840905E-05</v>
       </c>
       <c r="V237">
-        <v>0.999933818663137</v>
+        <v>-6.618133686298044E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18307,7 +18307,7 @@
         <v>0.7494789953414962</v>
       </c>
       <c r="K238">
-        <v>42.84012539374323</v>
+        <v>-0.07159874606256772</v>
       </c>
       <c r="L238">
         <v>-0.00550410158279935</v>
@@ -18337,13 +18337,13 @@
         <v>-0.04374999999996021</v>
       </c>
       <c r="U238">
-        <v>0.9999448677377027</v>
+        <v>-5.513226229725277E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999338142828776</v>
+        <v>-6.618571712235788E-05</v>
       </c>
       <c r="W238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18378,7 +18378,7 @@
         <v>0.7494789953414961</v>
       </c>
       <c r="K239">
-        <v>42.84012539374323</v>
+        <v>-0.07159874606256772</v>
       </c>
       <c r="L239">
         <v>-0.005308504657530341</v>
@@ -18408,13 +18408,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U239">
-        <v>0.9999558917583751</v>
+        <v>-4.410824162492943E-05</v>
       </c>
       <c r="V239">
-        <v>0.999933809902039</v>
+        <v>-6.619009796104969E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18449,7 +18449,7 @@
         <v>0.6683376998253789</v>
       </c>
       <c r="K240">
-        <v>40.06009693932663</v>
+        <v>-0.09939903060673366</v>
       </c>
       <c r="L240">
         <v>-0.005210908008422276</v>
@@ -18479,13 +18479,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U240">
-        <v>0.9999669173595642</v>
+        <v>-3.308264043577758E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999338055206195</v>
+        <v>-6.619447938049916E-05</v>
       </c>
       <c r="W240">
-        <v>0.9996689837802052</v>
+        <v>-0.0003310162197948108</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18520,7 +18520,7 @@
         <v>0.7822993859404753</v>
       </c>
       <c r="K241">
-        <v>43.89270355539483</v>
+        <v>-0.0610729644460517</v>
       </c>
       <c r="L241">
         <v>-0.005039489988507489</v>
@@ -18550,13 +18550,13 @@
         <v>-0.003124999999982947</v>
       </c>
       <c r="U241">
-        <v>0.9999558883534224</v>
+        <v>-4.41116465775826E-05</v>
       </c>
       <c r="V241">
-        <v>0.9999558674257469</v>
+        <v>-4.413257425306405E-05</v>
       </c>
       <c r="W241">
-        <v>1.000331125827815</v>
+        <v>0.0003311258278146934</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18591,7 +18591,7 @@
         <v>0.9022590555352453</v>
       </c>
       <c r="K242">
-        <v>47.43092445320879</v>
+        <v>-0.02569075546791211</v>
       </c>
       <c r="L242">
         <v>-0.00469545243856095</v>
@@ -18621,13 +18621,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U242">
-        <v>0.9999889716018748</v>
+        <v>-1.102839812516798E-05</v>
       </c>
       <c r="V242">
-        <v>0.9999779327389885</v>
+        <v>-2.206726101150469E-05</v>
       </c>
       <c r="W242">
-        <v>1.000331016219795</v>
+        <v>0.0003310162197946998</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18662,7 +18662,7 @@
         <v>1.028532391950865</v>
       </c>
       <c r="K243">
-        <v>50.70327671532583</v>
+        <v>0.00703276715325829</v>
       </c>
       <c r="L243">
         <v>-0.004131167794664042</v>
@@ -18692,13 +18692,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U243">
-        <v>0.9999779429604957</v>
+        <v>-2.205703950430848E-05</v>
       </c>
       <c r="V243">
-        <v>1.000022067747986</v>
+        <v>2.206774798629851E-05</v>
       </c>
       <c r="W243">
-        <v>1.000330906684315</v>
+        <v>0.0003309066843151243</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18733,7 +18733,7 @@
         <v>0.7353183768712012</v>
       </c>
       <c r="K244">
-        <v>42.37368696555779</v>
+        <v>-0.07626313034442206</v>
       </c>
       <c r="L244">
         <v>-0.003815766833167422</v>
@@ -18763,13 +18763,13 @@
         <v>0.006249999999965894</v>
       </c>
       <c r="U244">
-        <v>0.9999558849479443</v>
+        <v>-4.411505205570432E-05</v>
       </c>
       <c r="V244">
-        <v>0.9999558654779769</v>
+        <v>-4.41345220231204E-05</v>
       </c>
       <c r="W244">
-        <v>0.9990076083360899</v>
+        <v>-0.0009923916639100749</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18804,7 +18804,7 @@
         <v>0.6684541936966378</v>
       </c>
       <c r="K245">
-        <v>40.06428202955974</v>
+        <v>-0.09935717970440261</v>
       </c>
       <c r="L245">
         <v>-0.00377785657081925</v>
@@ -18834,13 +18834,13 @@
         <v>0.003124999999982947</v>
       </c>
       <c r="U245">
-        <v>0.9999227952530111</v>
+        <v>-7.720474698891255E-05</v>
       </c>
       <c r="V245">
-        <v>0.9999779317650175</v>
+        <v>-2.206823498251964E-05</v>
       </c>
       <c r="W245">
-        <v>0.9996688741721853</v>
+        <v>-0.0003311258278146934</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18875,7 +18875,7 @@
         <v>0.6100603187203731</v>
       </c>
       <c r="K246">
-        <v>37.89052569193373</v>
+        <v>-0.1210947430806627</v>
       </c>
       <c r="L246">
         <v>-0.004017237171149941</v>
@@ -18905,13 +18905,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U246">
-        <v>0.9999227892919779</v>
+        <v>-7.721070802213514E-05</v>
       </c>
       <c r="V246">
-        <v>0.9999558625559994</v>
+        <v>-4.413744400055819E-05</v>
       </c>
       <c r="W246">
-        <v>0.9996687644915536</v>
+        <v>-0.0003312355084463814</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18946,7 +18946,7 @@
         <v>0.6100603187203731</v>
       </c>
       <c r="K247">
-        <v>37.89052569193373</v>
+        <v>-0.1210947430806627</v>
       </c>
       <c r="L247">
         <v>-0.004394771157337224</v>
@@ -18976,13 +18976,13 @@
         <v>-0.02187499999999432</v>
       </c>
       <c r="U247">
-        <v>0.9999338142828776</v>
+        <v>-6.618571712235788E-05</v>
       </c>
       <c r="V247">
-        <v>0.9999558606077995</v>
+        <v>-4.41393922004929E-05</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19017,7 +19017,7 @@
         <v>0.7068543177025998</v>
       </c>
       <c r="K248">
-        <v>41.41269177875795</v>
+        <v>-0.08587308221242046</v>
       </c>
       <c r="L248">
         <v>-0.004695487819590513</v>
@@ -19047,13 +19047,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U248">
-        <v>0.999955873268026</v>
+        <v>-4.412673197395911E-05</v>
       </c>
       <c r="V248">
-        <v>0.9999779293297135</v>
+        <v>-2.207067028647813E-05</v>
       </c>
       <c r="W248">
-        <v>1.000331345261763</v>
+        <v>0.0003313452617625945</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19088,7 +19088,7 @@
         <v>0.808742737683949</v>
       </c>
       <c r="K249">
-        <v>44.71297774052292</v>
+        <v>-0.05287022259477075</v>
       </c>
       <c r="L249">
         <v>-0.004792923829592785</v>
@@ -19118,13 +19118,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U249">
-        <v>0.9999669034905784</v>
+        <v>-3.309650942162623E-05</v>
       </c>
       <c r="V249">
-        <v>0.9999779288425885</v>
+        <v>-2.207115741148513E-05</v>
       </c>
       <c r="W249">
-        <v>1.000331235508447</v>
+        <v>0.0003312355084466034</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19159,7 +19159,7 @@
         <v>0.7304059881307317</v>
       </c>
       <c r="K250">
-        <v>42.21009365089817</v>
+        <v>-0.07789906349101833</v>
       </c>
       <c r="L250">
         <v>-0.004864049967198677</v>
@@ -19189,13 +19189,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U250">
-        <v>0.9999448373252723</v>
+        <v>-5.516267472771563E-05</v>
       </c>
       <c r="V250">
-        <v>0.9999117134217668</v>
+        <v>-8.828657823323205E-05</v>
       </c>
       <c r="W250">
-        <v>0.9996688741721853</v>
+        <v>-0.0003311258278146934</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19230,7 +19230,7 @@
         <v>0.934326796391596</v>
       </c>
       <c r="K251">
-        <v>48.30242739409611</v>
+        <v>-0.01697572605903885</v>
       </c>
       <c r="L251">
         <v>-0.004655978644859958</v>
@@ -19260,13 +19260,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U251">
-        <v>0.9999669005693103</v>
+        <v>-3.309943068974253E-05</v>
       </c>
       <c r="V251">
-        <v>1</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="W251">
-        <v>1.000662471016893</v>
+        <v>0.0006624710168932069</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19301,7 +19301,7 @@
         <v>0.8437679337424582</v>
       </c>
       <c r="K252">
-        <v>45.76323941320468</v>
+        <v>-0.04236760586795318</v>
       </c>
       <c r="L252">
         <v>-0.00439555858614364</v>
@@ -19331,13 +19331,13 @@
         <v>-0.04687500000002842</v>
       </c>
       <c r="U252">
-        <v>0.9999558659649356</v>
+        <v>-4.413403506442481E-05</v>
       </c>
       <c r="V252">
-        <v>0.9999779264066395</v>
+        <v>-2.20735933604832E-05</v>
       </c>
       <c r="W252">
-        <v>0.9996689837802052</v>
+        <v>-0.0003310162197948108</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19372,7 +19372,7 @@
         <v>0.9457933909445728</v>
       </c>
       <c r="K253">
-        <v>48.60708209546562</v>
+        <v>-0.0139291790453438</v>
       </c>
       <c r="L253">
         <v>-0.00398348335444365</v>
@@ -19402,13 +19402,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U253">
-        <v>0.9999668980127772</v>
+        <v>-3.310198722283886E-05</v>
       </c>
       <c r="V253">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W253">
-        <v>1.000331125827815</v>
+        <v>0.0003311258278146934</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19443,7 +19443,7 @@
         <v>0.7785650617167011</v>
       </c>
       <c r="K254">
-        <v>43.77489912936988</v>
+        <v>-0.06225100870630124</v>
       </c>
       <c r="L254">
         <v>-0.003732324803195929</v>
@@ -19473,13 +19473,13 @@
         <v>-0.02187500000002274</v>
       </c>
       <c r="U254">
-        <v>0.9999448281949993</v>
+        <v>-5.517180500069774E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999558518387708</v>
+        <v>-4.414816122921827E-05</v>
       </c>
       <c r="W254">
-        <v>0.9993379675604103</v>
+        <v>-0.0006620324395897326</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19514,7 +19514,7 @@
         <v>0.7785650617167013</v>
       </c>
       <c r="K255">
-        <v>43.77489912936989</v>
+        <v>-0.06225100870630113</v>
       </c>
       <c r="L255">
         <v>-0.003581083750657396</v>
@@ -19544,13 +19544,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U255">
-        <v>0.9999558601207226</v>
+        <v>-4.413987927742724E-05</v>
       </c>
       <c r="V255">
-        <v>0.9999779249448122</v>
+        <v>-2.207505518780906E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19585,7 +19585,7 @@
         <v>0.7785650617167011</v>
       </c>
       <c r="K256">
-        <v>43.77489912936988</v>
+        <v>-0.06225100870630124</v>
       </c>
       <c r="L256">
         <v>-0.003486984862804925</v>
@@ -19615,13 +19615,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U256">
-        <v>0.9999558581723077</v>
+        <v>-4.414182769230113E-05</v>
       </c>
       <c r="V256">
-        <v>0.9999558489149871</v>
+        <v>-4.41510850128779E-05</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19656,7 +19656,7 @@
         <v>0.5946247232323654</v>
       </c>
       <c r="K257">
-        <v>37.28932046325221</v>
+        <v>-0.1271067953674779</v>
       </c>
       <c r="L257">
         <v>-0.00378244199937227</v>
@@ -19686,13 +19686,13 @@
         <v>-0.01562499999997158</v>
       </c>
       <c r="U257">
-        <v>0.9999227483915112</v>
+        <v>-7.725160848881529E-05</v>
       </c>
       <c r="V257">
-        <v>0.9998675408967482</v>
+        <v>-0.0001324591032517697</v>
       </c>
       <c r="W257">
-        <v>0.9990062934746606</v>
+        <v>-0.0009937065253393662</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19727,7 +19727,7 @@
         <v>0.5946247232323655</v>
       </c>
       <c r="K258">
-        <v>37.28932046325222</v>
+        <v>-0.1271067953674778</v>
       </c>
       <c r="L258">
         <v>-0.004281355859122864</v>
@@ -19757,13 +19757,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U258">
-        <v>0.9999337792199192</v>
+        <v>-6.622078008078347E-05</v>
       </c>
       <c r="V258">
-        <v>0.999845443907178</v>
+        <v>-0.0001545560928220002</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19798,7 +19798,7 @@
         <v>0.5469022123682346</v>
       </c>
       <c r="K259">
-        <v>35.35467258340481</v>
+        <v>-0.1464532741659519</v>
       </c>
       <c r="L259">
         <v>-0.004976753964302584</v>
@@ -19828,13 +19828,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U259">
-        <v>0.9999227373068431</v>
+        <v>-7.726269315688761E-05</v>
       </c>
       <c r="V259">
-        <v>0.9998895857256426</v>
+        <v>-0.0001104142743574288</v>
       </c>
       <c r="W259">
-        <v>0.9996684350132625</v>
+        <v>-0.0003315649867374759</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19869,7 +19869,7 @@
         <v>0.5042987758609583</v>
       </c>
       <c r="K260">
-        <v>33.5238440629809</v>
+        <v>-0.164761559370191</v>
       </c>
       <c r="L260">
         <v>-0.005849387412725718</v>
@@ -19899,13 +19899,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U260">
-        <v>0.9999337697173072</v>
+        <v>-6.623028269281406E-05</v>
       </c>
       <c r="V260">
-        <v>0.9998895735329845</v>
+        <v>-0.0001104264670155342</v>
       </c>
       <c r="W260">
-        <v>0.9996683250414593</v>
+        <v>-0.0003316749585406953</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19940,7 +19940,7 @@
         <v>0.4660804033215248</v>
       </c>
       <c r="K261">
-        <v>31.79091694190726</v>
+        <v>-0.1820908305809275</v>
       </c>
       <c r="L261">
         <v>-0.00687315714662139</v>
@@ -19970,13 +19970,13 @@
         <v>-0.07812499999997158</v>
       </c>
       <c r="U261">
-        <v>0.9999227262189938</v>
+        <v>-7.727378100619298E-05</v>
       </c>
       <c r="V261">
-        <v>0.999889561337633</v>
+        <v>-0.0001104386623670406</v>
       </c>
       <c r="W261">
-        <v>0.9996682149966822</v>
+        <v>-0.0003317850033177638</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20011,7 +20011,7 @@
         <v>0.5458542749957136</v>
       </c>
       <c r="K262">
-        <v>35.31084940055085</v>
+        <v>-0.1468915059944915</v>
       </c>
       <c r="L262">
         <v>-0.007777783906922858</v>
@@ -20041,13 +20041,13 @@
         <v>-0.09687500000001137</v>
       </c>
       <c r="U262">
-        <v>0.9999337602119672</v>
+        <v>-6.623978803277364E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999116393116703</v>
+        <v>-8.836068832973609E-05</v>
       </c>
       <c r="W262">
-        <v>1.000331895121142</v>
+        <v>0.0003318951211415122</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20082,7 +20082,7 @@
         <v>0.4673629993433171</v>
       </c>
       <c r="K263">
-        <v>31.85053729393981</v>
+        <v>-0.1814946270606019</v>
       </c>
       <c r="L263">
         <v>-0.008765529915618476</v>
@@ -20112,13 +20112,13 @@
         <v>-0.1218749999999886</v>
       </c>
       <c r="U263">
-        <v>0.9999116744319563</v>
+        <v>-8.832556804372338E-05</v>
       </c>
       <c r="V263">
-        <v>0.999845355130896</v>
+        <v>-0.0001546448691039926</v>
       </c>
       <c r="W263">
-        <v>0.9993364299933644</v>
+        <v>-0.0006635700066356387</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20153,7 +20153,7 @@
         <v>0.4344807435457955</v>
       </c>
       <c r="K264">
-        <v>30.28836361175766</v>
+        <v>-0.1971163638824234</v>
       </c>
       <c r="L264">
         <v>-0.009829527062841945</v>
@@ -20183,13 +20183,13 @@
         <v>-0.1468749999999943</v>
       </c>
       <c r="U264">
-        <v>0.9998895832873265</v>
+        <v>-0.0001104167126735334</v>
       </c>
       <c r="V264">
-        <v>0.9998011401299216</v>
+        <v>-0.0001988598700783939</v>
       </c>
       <c r="W264">
-        <v>0.9996679946879151</v>
+        <v>-0.000332005312084882</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20224,7 +20224,7 @@
         <v>0.4045218572973673</v>
       </c>
       <c r="K265">
-        <v>28.80139281532885</v>
+        <v>-0.2119860718467115</v>
       </c>
       <c r="L265">
         <v>-0.01095692557198897</v>
@@ -20254,13 +20254,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U265">
-        <v>0.9998564424223686</v>
+        <v>-0.0001435575776314035</v>
       </c>
       <c r="V265">
-        <v>0.9998011005768085</v>
+        <v>-0.000198899423191512</v>
       </c>
       <c r="W265">
-        <v>0.9996678844237794</v>
+        <v>-0.000332115576220593</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20295,7 +20295,7 @@
         <v>0.3771475689057205</v>
       </c>
       <c r="K266">
-        <v>27.38614055757304</v>
+        <v>-0.2261385944242696</v>
       </c>
       <c r="L266">
         <v>-0.0121318424234667</v>
@@ -20325,13 +20325,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U266">
-        <v>0.9998674662867366</v>
+        <v>-0.000132533713263383</v>
       </c>
       <c r="V266">
-        <v>0.9997347480106101</v>
+        <v>-0.0002652519893898697</v>
       </c>
       <c r="W266">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20366,7 +20366,7 @@
         <v>0.3771475689057206</v>
       </c>
       <c r="K267">
-        <v>27.38614055757304</v>
+        <v>-0.2261385944242696</v>
       </c>
       <c r="L267">
         <v>-0.01321676406498844</v>
@@ -20396,13 +20396,13 @@
         <v>-0.1656250000000057</v>
       </c>
       <c r="U267">
-        <v>0.999867448719223</v>
+        <v>-0.000132551280777049</v>
       </c>
       <c r="V267">
-        <v>0.9997567878305473</v>
+        <v>-0.0002432121694526668</v>
       </c>
       <c r="W267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20437,7 +20437,7 @@
         <v>0.45212898446936</v>
       </c>
       <c r="K268">
-        <v>31.13559396616395</v>
+        <v>-0.1886440603383605</v>
       </c>
       <c r="L268">
         <v>-0.01400949177351183</v>
@@ -20467,13 +20467,13 @@
         <v>-0.1593749999999829</v>
       </c>
       <c r="U268">
-        <v>0.9998784785514644</v>
+        <v>-0.0001215214485356109</v>
       </c>
       <c r="V268">
-        <v>0.9997567286639979</v>
+        <v>-0.0002432713360021044</v>
       </c>
       <c r="W268">
-        <v>1.00033233632436</v>
+        <v>0.0003323363243603605</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20508,7 +20508,7 @@
         <v>0.45212898446936</v>
       </c>
       <c r="K269">
-        <v>31.13559396616395</v>
+        <v>-0.1886440603383605</v>
       </c>
       <c r="L269">
         <v>-0.01452381797706902</v>
@@ -20538,13 +20538,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U269">
-        <v>0.999878463782207</v>
+        <v>-0.0001215362177929835</v>
       </c>
       <c r="V269">
-        <v>0.9998009113834448</v>
+        <v>-0.0001990886165551542</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20579,7 +20579,7 @@
         <v>0.45212898446936</v>
       </c>
       <c r="K270">
-        <v>31.13559396616395</v>
+        <v>-0.1886440603383605</v>
       </c>
       <c r="L270">
         <v>-0.01478393215020805</v>
@@ -20609,13 +20609,13 @@
         <v>-0.1406249999999716</v>
       </c>
       <c r="U270">
-        <v>0.9998894990994176</v>
+        <v>-0.0001105009005823998</v>
       </c>
       <c r="V270">
-        <v>0.9998008717392746</v>
+        <v>-0.0001991282607254341</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20650,7 +20650,7 @@
         <v>0.45212898446936</v>
       </c>
       <c r="K271">
-        <v>31.13559396616395</v>
+        <v>-0.1886440603383605</v>
       </c>
       <c r="L271">
         <v>-0.01481971118810752</v>
@@ -20680,13 +20680,13 @@
         <v>-0.125</v>
       </c>
       <c r="U271">
-        <v>0.9998784355763815</v>
+        <v>-0.0001215644236185476</v>
       </c>
       <c r="V271">
-        <v>0.9998008320793133</v>
+        <v>-0.0001991679206867492</v>
       </c>
       <c r="W271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20721,7 +20721,7 @@
         <v>0.5441864923935036</v>
       </c>
       <c r="K272">
-        <v>35.24098255451059</v>
+        <v>-0.147590174454894</v>
       </c>
       <c r="L272">
         <v>-0.01454267580717544</v>
@@ -20751,13 +20751,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U272">
-        <v>0.9998784207966753</v>
+        <v>-0.0001215792033246732</v>
       </c>
       <c r="V272">
-        <v>0.9998893291130834</v>
+        <v>-0.0001106708869166306</v>
       </c>
       <c r="W272">
-        <v>1.000332225913621</v>
+        <v>0.0003322259136213646</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20792,7 +20792,7 @@
         <v>0.4558419212773966</v>
       </c>
       <c r="K273">
-        <v>31.31122374037891</v>
+        <v>-0.1868877625962109</v>
       </c>
       <c r="L273">
         <v>-0.01428227925624544</v>
@@ -20822,13 +20822,13 @@
         <v>-0.08437499999996589</v>
       </c>
       <c r="U273">
-        <v>0.9998452440170231</v>
+        <v>-0.000154755982976873</v>
       </c>
       <c r="V273">
-        <v>0.9998450436091558</v>
+        <v>-0.0001549563908441742</v>
       </c>
       <c r="W273">
-        <v>0.9993357688475588</v>
+        <v>-0.0006642311524411859</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20863,7 +20863,7 @@
         <v>0.541285318610136</v>
       </c>
       <c r="K274">
-        <v>35.11908613378887</v>
+        <v>-0.1488091386621113</v>
       </c>
       <c r="L274">
         <v>-0.01387588747282813</v>
@@ -20893,13 +20893,13 @@
         <v>-0.05937500000001705</v>
       </c>
       <c r="U274">
-        <v>0.9998894429027873</v>
+        <v>-0.000110557097212749</v>
       </c>
       <c r="V274">
-        <v>0.9998892997099652</v>
+        <v>-0.0001107002900347931</v>
       </c>
       <c r="W274">
-        <v>1.00033233632436</v>
+        <v>0.0003323363243603605</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20934,7 +20934,7 @@
         <v>0.541285318610136</v>
       </c>
       <c r="K275">
-        <v>35.11908613378887</v>
+        <v>-0.1488091386621113</v>
       </c>
       <c r="L275">
         <v>-0.01335642929960206</v>
@@ -20964,13 +20964,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U275">
-        <v>0.9999004876107073</v>
+        <v>-9.951238929273298E-05</v>
       </c>
       <c r="V275">
-        <v>0.9999114299632433</v>
+        <v>-8.857003675666331E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21005,7 +21005,7 @@
         <v>0.4944716482386871</v>
       </c>
       <c r="K276">
-        <v>33.08671990006955</v>
+        <v>-0.1691328009993044</v>
       </c>
       <c r="L276">
         <v>-0.01287373074548206</v>
@@ -21035,13 +21035,13 @@
         <v>-0.02812499999998863</v>
       </c>
       <c r="U276">
-        <v>0.9999004777070064</v>
+        <v>-9.952229299359239E-05</v>
       </c>
       <c r="V276">
-        <v>0.9999114221178974</v>
+        <v>-8.857788210259177E-05</v>
       </c>
       <c r="W276">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21076,7 +21076,7 @@
         <v>0.8586237585227301</v>
       </c>
       <c r="K277">
-        <v>46.19674931978599</v>
+        <v>-0.03803250680214015</v>
       </c>
       <c r="L277">
         <v>-0.01191402408527202</v>
@@ -21106,13 +21106,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U277">
-        <v>0.9999447043340746</v>
+        <v>-5.529566592543667E-05</v>
       </c>
       <c r="V277">
-        <v>0.9999778535677899</v>
+        <v>-2.214643221010171E-05</v>
       </c>
       <c r="W277">
-        <v>1.001329345297441</v>
+        <v>0.00132934529744122</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21147,7 +21147,7 @@
         <v>1.050282763935357</v>
       </c>
       <c r="K278">
-        <v>51.22623973677765</v>
+        <v>0.01226239736777646</v>
       </c>
       <c r="L278">
         <v>-0.0104413062320331</v>
@@ -21177,13 +21177,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U278">
-        <v>0.9999557610210354</v>
+        <v>-4.423897896455031E-05</v>
       </c>
       <c r="V278">
-        <v>1.000066440768056</v>
+        <v>6.644076805550903E-05</v>
       </c>
       <c r="W278">
-        <v>1.000663790242283</v>
+        <v>0.0006637902422834685</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21218,7 +21218,7 @@
         <v>1.151155924678873</v>
       </c>
       <c r="K279">
-        <v>53.51336513882502</v>
+        <v>0.0351336513882502</v>
       </c>
       <c r="L279">
         <v>-0.008592582852543077</v>
@@ -21248,13 +21248,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U279">
-        <v>0.9999557590638618</v>
+        <v>-4.424093613819569E-05</v>
       </c>
       <c r="V279">
-        <v>1.000110727256622</v>
+        <v>0.0001107272566218676</v>
       </c>
       <c r="W279">
-        <v>1.000331674958541</v>
+        <v>0.0003316749585406953</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21289,7 +21289,7 @@
         <v>0.9495130203958215</v>
       </c>
       <c r="K280">
-        <v>48.70513869166342</v>
+        <v>-0.01294861308336581</v>
       </c>
       <c r="L280">
         <v>-0.006844104314827461</v>
@@ -21319,13 +21319,13 @@
         <v>0.05312499999999432</v>
       </c>
       <c r="U280">
-        <v>0.9999446963831435</v>
+        <v>-5.530361685646135E-05</v>
       </c>
       <c r="V280">
-        <v>1.000088571997963</v>
+        <v>8.857199796286075E-05</v>
       </c>
       <c r="W280">
-        <v>0.999336870026525</v>
+        <v>-0.0006631299734749518</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21360,7 +21360,7 @@
         <v>0.8693642325665569</v>
       </c>
       <c r="K281">
-        <v>46.50587710095197</v>
+        <v>-0.0349412289904803</v>
       </c>
       <c r="L281">
         <v>-0.005363679776081631</v>
@@ -21390,13 +21390,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U281">
-        <v>0.9999115093191747</v>
+        <v>-8.849068082528166E-05</v>
       </c>
       <c r="V281">
-        <v>1.000088564153659</v>
+        <v>8.856415365876558E-05</v>
       </c>
       <c r="W281">
-        <v>0.9996682149966822</v>
+        <v>-0.0003317850033177638</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21431,7 +21431,7 @@
         <v>0.6863984167268286</v>
       </c>
       <c r="K282">
-        <v>40.70203161475186</v>
+        <v>-0.0929796838524814</v>
       </c>
       <c r="L282">
         <v>-0.004483040645930471</v>
@@ -21461,13 +21461,13 @@
         <v>0.06562500000001137</v>
       </c>
       <c r="U282">
-        <v>0.9998893768598515</v>
+        <v>-0.0001106231401485358</v>
       </c>
       <c r="V282">
-        <v>1.000022139077686</v>
+        <v>2.213907768600087E-05</v>
       </c>
       <c r="W282">
-        <v>0.9990043146365748</v>
+        <v>-0.0009956853634252028</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21502,7 +21502,7 @@
         <v>0.6391966941295781</v>
       </c>
       <c r="K283">
-        <v>38.99450849423503</v>
+        <v>-0.1100549150576497</v>
       </c>
       <c r="L283">
         <v>-0.004126488818155815</v>
@@ -21532,13 +21532,13 @@
         <v>0.05937499999996021</v>
       </c>
       <c r="U283">
-        <v>0.9998672375452223</v>
+        <v>-0.0001327624547776685</v>
       </c>
       <c r="V283">
-        <v>0.999977861412442</v>
+        <v>-2.213858755795162E-05</v>
       </c>
       <c r="W283">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21573,7 +21573,7 @@
         <v>0.5960506358775427</v>
       </c>
       <c r="K284">
-        <v>37.34534622391985</v>
+        <v>-0.1265465377608015</v>
       </c>
       <c r="L284">
         <v>-0.004216060610928635</v>
@@ -21603,13 +21603,13 @@
         <v>0.05937500000001705</v>
       </c>
       <c r="U284">
-        <v>0.9998782849239281</v>
+        <v>-0.0001217150760719488</v>
       </c>
       <c r="V284">
-        <v>0.9999557218446278</v>
+        <v>-4.427815537222379E-05</v>
       </c>
       <c r="W284">
-        <v>0.9996676636756399</v>
+        <v>-0.0003323363243601385</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21644,7 +21644,7 @@
         <v>0.5960506358775428</v>
       </c>
       <c r="K285">
-        <v>37.34534622391985</v>
+        <v>-0.1265465377608014</v>
       </c>
       <c r="L285">
         <v>-0.004554905998094112</v>
@@ -21674,13 +21674,13 @@
         <v>0.03437500000001137</v>
       </c>
       <c r="U285">
-        <v>0.9998782701075649</v>
+        <v>-0.0001217298924350851</v>
       </c>
       <c r="V285">
-        <v>0.9999557198839861</v>
+        <v>-4.428011601387283E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21715,7 +21715,7 @@
         <v>0.5960506358775427</v>
       </c>
       <c r="K286">
-        <v>37.34534622391985</v>
+        <v>-0.1265465377608015</v>
       </c>
       <c r="L286">
         <v>-0.005006644402608676</v>
@@ -21745,13 +21745,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U286">
-        <v>0.9998782552875946</v>
+        <v>-0.0001217447124054472</v>
       </c>
       <c r="V286">
-        <v>0.9999557179231706</v>
+        <v>-4.428207682938279E-05</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21786,7 +21786,7 @@
         <v>0.5525489073472569</v>
       </c>
       <c r="K287">
-        <v>35.58979074555292</v>
+        <v>-0.1441020925444708</v>
       </c>
       <c r="L287">
         <v>-0.005600694485670348</v>
@@ -21816,13 +21816,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U287">
-        <v>0.9999003785614662</v>
+        <v>-9.962143853381455E-05</v>
       </c>
       <c r="V287">
-        <v>0.9999114319243627</v>
+        <v>-8.85680756372853E-05</v>
       </c>
       <c r="W287">
-        <v>0.9996675531914893</v>
+        <v>-0.0003324468085107446</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21857,7 +21857,7 @@
         <v>0.7061979110844804</v>
       </c>
       <c r="K288">
-        <v>41.39015213279755</v>
+        <v>-0.08609847867202447</v>
       </c>
       <c r="L288">
         <v>-0.005981007372074598</v>
@@ -21887,13 +21887,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U288">
-        <v>0.9999225089391475</v>
+        <v>-7.749106085253032E-05</v>
       </c>
       <c r="V288">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W288">
-        <v>1.000665114732291</v>
+        <v>0.0006651147322913609</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -21928,7 +21928,7 @@
         <v>0.8679337044921298</v>
       </c>
       <c r="K289">
-        <v>46.46490945609396</v>
+        <v>-0.03535090543906044</v>
       </c>
       <c r="L289">
         <v>-0.005944044068388781</v>
@@ -21958,13 +21958,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U289">
-        <v>0.9999557159621815</v>
+        <v>-4.428403781853163E-05</v>
       </c>
       <c r="V289">
-        <v>1.000022143980159</v>
+        <v>2.214398015887298E-05</v>
       </c>
       <c r="W289">
-        <v>1.000664672648721</v>
+        <v>0.0006646726487207211</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21999,7 +21999,7 @@
         <v>0.8679337044921298</v>
       </c>
       <c r="K290">
-        <v>46.46490945609396</v>
+        <v>-0.03535090543906044</v>
       </c>
       <c r="L290">
         <v>-0.005634954686530884</v>
@@ -22029,13 +22029,13 @@
         <v>-0.09062500000001705</v>
       </c>
       <c r="U290">
-        <v>0.999966785500764</v>
+        <v>-3.321449923598951E-05</v>
       </c>
       <c r="V290">
-        <v>1.000022143489814</v>
+        <v>2.214348981421921E-05</v>
       </c>
       <c r="W290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22070,7 +22070,7 @@
         <v>0.9575380221694473</v>
       </c>
       <c r="K291">
-        <v>48.91542393175347</v>
+        <v>-0.01084576068246534</v>
       </c>
       <c r="L291">
         <v>-0.005039235158989042</v>
@@ -22100,13 +22100,13 @@
         <v>-0.078125</v>
       </c>
       <c r="U291">
-        <v>0.9999889281325083</v>
+        <v>-1.107186749171873E-05</v>
       </c>
       <c r="V291">
-        <v>1.000066428998472</v>
+        <v>6.642899847197903E-05</v>
       </c>
       <c r="W291">
-        <v>1.00033211557622</v>
+        <v>0.0003321155762203709</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22141,7 +22141,7 @@
         <v>1.051858356566677</v>
       </c>
       <c r="K292">
-        <v>51.26369240841385</v>
+        <v>0.01263692408413852</v>
       </c>
       <c r="L292">
         <v>-0.004168513795394234</v>
@@ -22171,13 +22171,13 @@
         <v>-0.05937499999998863</v>
       </c>
       <c r="U292">
-        <v>0.9999889280099203</v>
+        <v>-1.107199007965853E-05</v>
       </c>
       <c r="V292">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W292">
-        <v>1.000332005312085</v>
+        <v>0.0003320053120849931</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22212,7 +22212,7 @@
         <v>0.8775950711442325</v>
       </c>
       <c r="K293">
-        <v>46.74038000160566</v>
+        <v>-0.03259619998394336</v>
       </c>
       <c r="L293">
         <v>-0.003413289793744739</v>
@@ -22242,13 +22242,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U293">
-        <v>0.9999889278873302</v>
+        <v>-1.107211266981878E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999114338853954</v>
+        <v>-8.856611460461572E-05</v>
       </c>
       <c r="W293">
-        <v>0.9993362097577166</v>
+        <v>-0.0006637902422833575</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22283,7 +22283,7 @@
         <v>0.6506570877154033</v>
       </c>
       <c r="K294">
-        <v>39.41806523945849</v>
+        <v>-0.1058193476054151</v>
       </c>
       <c r="L294">
         <v>-0.003247438710972318</v>
@@ -22313,13 +22313,13 @@
         <v>-0.01562500000002842</v>
       </c>
       <c r="U294">
-        <v>0.9999557110589484</v>
+        <v>-4.428894105157344E-05</v>
       </c>
       <c r="V294">
-        <v>0.9998007085916742</v>
+        <v>-0.0001992914083257524</v>
       </c>
       <c r="W294">
-        <v>0.9986715376951177</v>
+        <v>-0.001328462304882261</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22354,7 +22354,7 @@
         <v>0.6506570877154033</v>
       </c>
       <c r="K295">
-        <v>39.41806523945849</v>
+        <v>-0.1058193476054151</v>
       </c>
       <c r="L295">
         <v>-0.003437441575340424</v>
@@ -22384,13 +22384,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U295">
-        <v>0.9999667818230136</v>
+        <v>-3.321817698642704E-05</v>
       </c>
       <c r="V295">
-        <v>0.9998449646740936</v>
+        <v>-0.0001550353259064385</v>
       </c>
       <c r="W295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22425,7 +22425,7 @@
         <v>0.6506570877154034</v>
       </c>
       <c r="K296">
-        <v>39.4180652394585</v>
+        <v>-0.105819347605415</v>
       </c>
       <c r="L296">
         <v>-0.003818448073871039</v>
@@ -22455,13 +22455,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U296">
-        <v>0.99997785381302</v>
+        <v>-2.214618698004323E-05</v>
       </c>
       <c r="V296">
-        <v>0.999867091972355</v>
+        <v>-0.0001329080276449845</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22496,7 +22496,7 @@
         <v>0.565393600162694</v>
       </c>
       <c r="K297">
-        <v>36.1183027772652</v>
+        <v>-0.138816972227348</v>
       </c>
       <c r="L297">
         <v>-0.004518904283182842</v>
@@ -22526,13 +22526,13 @@
         <v>0.009375000000005684</v>
       </c>
       <c r="U297">
-        <v>0.9999557066451106</v>
+        <v>-4.429335488942421E-05</v>
       </c>
       <c r="V297">
-        <v>0.999889228587886</v>
+        <v>-0.0001107714121140191</v>
       </c>
       <c r="W297">
-        <v>0.9993348852677088</v>
+        <v>-0.0006651147322912498</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22567,7 +22567,7 @@
         <v>0.7723022189045065</v>
       </c>
       <c r="K298">
-        <v>43.57621463577927</v>
+        <v>-0.06423785364220724</v>
       </c>
       <c r="L298">
         <v>-0.004989049340061518</v>
@@ -22597,13 +22597,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U298">
-        <v>0.999977852341561</v>
+        <v>-2.214765843899791E-05</v>
       </c>
       <c r="V298">
-        <v>0.9999778432632442</v>
+        <v>-2.215673675576291E-05</v>
       </c>
       <c r="W298">
-        <v>1.000998336106489</v>
+        <v>0.0009983361064891394</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22638,7 +22638,7 @@
         <v>0.7723022189045065</v>
       </c>
       <c r="K299">
-        <v>43.57621463577927</v>
+        <v>-0.06423785364220724</v>
       </c>
       <c r="L299">
         <v>-0.005271557182187622</v>
@@ -22668,13 +22668,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U299">
-        <v>0.9999778518510316</v>
+        <v>-2.214814896839279E-05</v>
       </c>
       <c r="V299">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22709,7 +22709,7 @@
         <v>0.7723022189045065</v>
       </c>
       <c r="K300">
-        <v>43.57621463577927</v>
+        <v>-0.06423785364220724</v>
       </c>
       <c r="L300">
         <v>-0.00540320219096965</v>
@@ -22739,13 +22739,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U300">
-        <v>0.9999778513604802</v>
+        <v>-2.214863951977009E-05</v>
       </c>
       <c r="V300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22780,7 +22780,7 @@
         <v>0.7723022189045063</v>
       </c>
       <c r="K301">
-        <v>43.57621463577927</v>
+        <v>-0.06423785364220724</v>
       </c>
       <c r="L301">
         <v>-0.005415392696242179</v>
@@ -22810,13 +22810,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U301">
-        <v>0.9999778508699071</v>
+        <v>-2.214913009290775E-05</v>
       </c>
       <c r="V301">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22851,7 +22851,7 @@
         <v>0.9416552216116005</v>
       </c>
       <c r="K302">
-        <v>48.49755049869326</v>
+        <v>-0.01502449501306735</v>
       </c>
       <c r="L302">
         <v>-0.005092782406755762</v>
@@ -22881,13 +22881,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U302">
-        <v>0.999988925189656</v>
+        <v>-1.107481034401392E-05</v>
       </c>
       <c r="V302">
-        <v>1.000066471683063</v>
+        <v>6.647168306295193E-05</v>
       </c>
       <c r="W302">
-        <v>1.000664893617021</v>
+        <v>0.0006648936170212671</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22922,7 +22922,7 @@
         <v>0.8645914538126017</v>
       </c>
       <c r="K303">
-        <v>46.36894865332233</v>
+        <v>-0.03631051346677666</v>
       </c>
       <c r="L303">
         <v>-0.004690286822936878</v>
@@ -22952,13 +22952,13 @@
         <v>-0.05625000000003411</v>
       </c>
       <c r="U303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W303">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -22993,7 +22993,7 @@
         <v>0.7960177704783615</v>
       </c>
       <c r="K304">
-        <v>44.32126360678189</v>
+        <v>-0.05678736393218109</v>
       </c>
       <c r="L304">
         <v>-0.004368932230363628</v>
@@ -23023,13 +23023,13 @@
         <v>-0.04687499999997158</v>
       </c>
       <c r="U304">
-        <v>0.9999778501340069</v>
+        <v>-2.21498659931374E-05</v>
       </c>
       <c r="V304">
-        <v>0.9999335327351282</v>
+        <v>-6.646726487180565E-05</v>
       </c>
       <c r="W304">
-        <v>0.9996676636756399</v>
+        <v>-0.0003323363243601385</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23064,7 +23064,7 @@
         <v>0.7960177704783615</v>
       </c>
       <c r="K305">
-        <v>44.32126360678189</v>
+        <v>-0.05678736393218109</v>
       </c>
       <c r="L305">
         <v>-0.004101312518297364</v>
@@ -23094,13 +23094,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U305">
-        <v>0.9999778496433791</v>
+        <v>-2.215035662089804E-05</v>
       </c>
       <c r="V305">
-        <v>0.9999335283169367</v>
+        <v>-6.647168306328499E-05</v>
       </c>
       <c r="W305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23135,7 +23135,7 @@
         <v>0.6299374992620266</v>
       </c>
       <c r="K306">
-        <v>38.64795426494808</v>
+        <v>-0.1135204573505192</v>
       </c>
       <c r="L306">
         <v>-0.004231346728206911</v>
@@ -23165,13 +23165,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U306">
-        <v>0.9999556983054603</v>
+        <v>-4.430169453972788E-05</v>
       </c>
       <c r="V306">
-        <v>0.9998448890957036</v>
+        <v>-0.0001551109042964294</v>
       </c>
       <c r="W306">
-        <v>0.9990026595744681</v>
+        <v>-0.0009973404255319007</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23206,7 +23206,7 @@
         <v>0.7031441304898</v>
       </c>
       <c r="K307">
-        <v>41.2850631900182</v>
+        <v>-0.08714936809981799</v>
       </c>
       <c r="L307">
         <v>-0.004457656164944252</v>
@@ -23236,13 +23236,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U307">
-        <v>0.999922468599783</v>
+        <v>-7.753140021704574E-05</v>
       </c>
       <c r="V307">
-        <v>0.9998448650325783</v>
+        <v>-0.0001551349674216995</v>
       </c>
       <c r="W307">
-        <v>1.000332778702163</v>
+        <v>0.0003327787021631945</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23277,7 +23277,7 @@
         <v>0.6528367815245435</v>
       </c>
       <c r="K308">
-        <v>39.49795822684802</v>
+        <v>-0.1050204177315198</v>
       </c>
       <c r="L308">
         <v>-0.004832673181178615</v>
@@ -23307,13 +23307,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U308">
-        <v>0.9998892322688554</v>
+        <v>-0.0001107677311446009</v>
       </c>
       <c r="V308">
-        <v>0.9998670065388451</v>
+        <v>-0.0001329934611549177</v>
       </c>
       <c r="W308">
-        <v>0.9996673320026612</v>
+        <v>-0.0003326679973387758</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23348,7 +23348,7 @@
         <v>0.7281486583897694</v>
       </c>
       <c r="K309">
-        <v>42.13460774076194</v>
+        <v>-0.07865392259238058</v>
       </c>
       <c r="L309">
         <v>-0.005135328569925401</v>
@@ -23378,13 +23378,13 @@
         <v>-0.003125000000011369</v>
       </c>
       <c r="U309">
-        <v>0.9998892199980061</v>
+        <v>-0.0001107800019939376</v>
       </c>
       <c r="V309">
-        <v>0.9999778314748722</v>
+        <v>-2.216852512781919E-05</v>
       </c>
       <c r="W309">
-        <v>1.000332778702163</v>
+        <v>0.0003327787021631945</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23419,7 +23419,7 @@
         <v>0.5882475260315908</v>
       </c>
       <c r="K310">
-        <v>37.03752194731203</v>
+        <v>-0.1296247805268797</v>
       </c>
       <c r="L310">
         <v>-0.005719226284489323</v>
@@ -23449,13 +23449,13 @@
         <v>-0.03437499999998295</v>
       </c>
       <c r="U310">
-        <v>0.9998781284968811</v>
+        <v>-0.000121871503118931</v>
       </c>
       <c r="V310">
-        <v>0.9999113239336702</v>
+        <v>-8.867606632978475E-05</v>
       </c>
       <c r="W310">
-        <v>0.999001996007984</v>
+        <v>-0.0009980039920159944</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23490,7 +23490,7 @@
         <v>0.6556624914391214</v>
       </c>
       <c r="K311">
-        <v>39.60121672317477</v>
+        <v>-0.1039878327682523</v>
       </c>
       <c r="L311">
         <v>-0.006294545818857276</v>
@@ -23520,13 +23520,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U311">
-        <v>0.9999002747983335</v>
+        <v>-9.972520166645626E-05</v>
       </c>
       <c r="V311">
-        <v>0.9999334870521462</v>
+        <v>-6.65129478537585E-05</v>
       </c>
       <c r="W311">
-        <v>1.000333000333</v>
+        <v>0.0003330003330002107</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23561,7 +23561,7 @@
         <v>0.7975887344024244</v>
       </c>
       <c r="K312">
-        <v>44.36992283819404</v>
+        <v>-0.05630077161805963</v>
       </c>
       <c r="L312">
         <v>-0.006563092966935782</v>
@@ -23591,13 +23591,13 @@
         <v>-0.06562499999998295</v>
       </c>
       <c r="U312">
-        <v>0.9999556732676559</v>
+        <v>-4.432673234411322E-05</v>
       </c>
       <c r="V312">
-        <v>1.000022172457373</v>
+        <v>2.217245737345941E-05</v>
       </c>
       <c r="W312">
-        <v>1.000665778961385</v>
+        <v>0.0006657789613848664</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23632,7 +23632,7 @@
         <v>0.8722867570146468</v>
       </c>
       <c r="K313">
-        <v>46.58937813593813</v>
+        <v>-0.03410621864061875</v>
       </c>
       <c r="L313">
         <v>-0.006483740441661787</v>
@@ -23662,13 +23662,13 @@
         <v>-0.07812500000002842</v>
       </c>
       <c r="U313">
-        <v>0.9999778356513548</v>
+        <v>-2.216434864521499E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999778280342335</v>
+        <v>-2.217196576648206E-05</v>
       </c>
       <c r="W313">
-        <v>1.000332667997339</v>
+        <v>0.0003326679973385538</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23703,7 +23703,7 @@
         <v>1.18680474696098</v>
       </c>
       <c r="K314">
-        <v>54.27118029674538</v>
+        <v>0.0427118029674538</v>
       </c>
       <c r="L314">
         <v>-0.005690856250470032</v>
@@ -23733,13 +23733,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U314">
-        <v>1.000033247259872</v>
+        <v>3.324725987163824E-05</v>
       </c>
       <c r="V314">
-        <v>1.00006651737212</v>
+        <v>6.651737212037823E-05</v>
       </c>
       <c r="W314">
-        <v>1.001330229464583</v>
+        <v>0.001330229464582722</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23774,7 +23774,7 @@
         <v>1.269572639052085</v>
       </c>
       <c r="K315">
-        <v>55.9388414015397</v>
+        <v>0.05938841401539707</v>
       </c>
       <c r="L315">
         <v>-0.004374319137073937</v>
@@ -23804,13 +23804,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U315">
-        <v>1.000044328206037</v>
+        <v>4.432820603739174E-05</v>
       </c>
       <c r="V315">
-        <v>1.000088683930472</v>
+        <v>8.868393047190004E-05</v>
       </c>
       <c r="W315">
-        <v>1.00033211557622</v>
+        <v>0.0003321155762203709</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23845,7 +23845,7 @@
         <v>1.443820832928146</v>
       </c>
       <c r="K316">
-        <v>59.08046995401801</v>
+        <v>0.09080469954018011</v>
       </c>
       <c r="L316">
         <v>-0.002566297385535284</v>
@@ -23875,13 +23875,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U316">
-        <v>1.000066489361702</v>
+        <v>6.648936170194908E-05</v>
       </c>
       <c r="V316">
-        <v>1.000133014099495</v>
+        <v>0.0001330140994946216</v>
       </c>
       <c r="W316">
-        <v>1.00066401062417</v>
+        <v>0.0006640106241699861</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23916,7 +23916,7 @@
         <v>1.322531985643111</v>
       </c>
       <c r="K317">
-        <v>56.94354238470911</v>
+        <v>0.06943542384709112</v>
       </c>
       <c r="L317">
         <v>-0.0006873999509796236</v>
@@ -23946,13 +23946,13 @@
         <v>0.04062499999997726</v>
       </c>
       <c r="U317">
-        <v>1.000066484941161</v>
+        <v>6.64849411611268E-05</v>
       </c>
       <c r="V317">
-        <v>1.000066498204548</v>
+        <v>6.649820454840416E-05</v>
       </c>
       <c r="W317">
-        <v>0.9996682149966822</v>
+        <v>-0.0003317850033177638</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -23987,7 +23987,7 @@
         <v>1.410958795891739</v>
       </c>
       <c r="K318">
-        <v>58.52272541098609</v>
+        <v>0.08522725410986087</v>
       </c>
       <c r="L318">
         <v>0.00123823512886064</v>
@@ -24017,13 +24017,13 @@
         <v>0.09687499999998295</v>
       </c>
       <c r="U318">
-        <v>1.000055400434339</v>
+        <v>5.540043433938102E-05</v>
       </c>
       <c r="V318">
-        <v>1.000110822971385</v>
+        <v>0.0001108229713853159</v>
       </c>
       <c r="W318">
-        <v>1.000331895121142</v>
+        <v>0.0003318951211415122</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24058,7 +24058,7 @@
         <v>1.189516394778586</v>
       </c>
       <c r="K319">
-        <v>54.32781401478729</v>
+        <v>0.0432781401478729</v>
       </c>
       <c r="L319">
         <v>0.002822772097107574</v>
@@ -24088,13 +24088,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U319">
-        <v>1.00001107947306</v>
+        <v>1.107947306033807E-05</v>
       </c>
       <c r="V319">
-        <v>1.000088648552812</v>
+        <v>8.86485528122094E-05</v>
       </c>
       <c r="W319">
-        <v>0.9993364299933644</v>
+        <v>-0.0006635700066356387</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24129,7 +24129,7 @@
         <v>1.020864592564006</v>
       </c>
       <c r="K320">
-        <v>50.51622935650362</v>
+        <v>0.005162293565036169</v>
       </c>
       <c r="L320">
         <v>0.003847220998752064</v>
@@ -24159,13 +24159,13 @@
         <v>0.1562499999999716</v>
       </c>
       <c r="U320">
-        <v>0.9999889206496931</v>
+        <v>-1.107935030686402E-05</v>
       </c>
       <c r="V320">
-        <v>1.000044320347472</v>
+        <v>4.432034747159364E-05</v>
       </c>
       <c r="W320">
-        <v>0.99933598937583</v>
+        <v>-0.0006640106241699861</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24200,7 +24200,7 @@
         <v>1.020864592564006</v>
       </c>
       <c r="K321">
-        <v>50.51622935650362</v>
+        <v>0.005162293565036169</v>
       </c>
       <c r="L321">
         <v>0.004453033058197223</v>
@@ -24230,13 +24230,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U321">
-        <v>0.9999778410538795</v>
+        <v>-2.21589461204541E-05</v>
       </c>
       <c r="V321">
-        <v>1.000110795958163</v>
+        <v>0.0001107959581634343</v>
       </c>
       <c r="W321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24271,7 +24271,7 @@
         <v>1.020864592564006</v>
       </c>
       <c r="K322">
-        <v>50.51622935650362</v>
+        <v>0.005162293565036169</v>
       </c>
       <c r="L322">
         <v>0.004750397013501819</v>
@@ -24301,13 +24301,13 @@
         <v>0.1468749999999943</v>
       </c>
       <c r="U322">
-        <v>0.9999667608442746</v>
+        <v>-3.323915572539526E-05</v>
       </c>
       <c r="V322">
-        <v>1.000088626947023</v>
+        <v>8.862694702305163E-05</v>
       </c>
       <c r="W322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24342,7 +24342,7 @@
         <v>0.9429019955313684</v>
       </c>
       <c r="K323">
-        <v>48.53059998394269</v>
+        <v>-0.01469400016057315</v>
       </c>
       <c r="L323">
         <v>0.004703611750034099</v>
@@ -24372,13 +24372,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U323">
-        <v>0.9999778398262641</v>
+        <v>-2.216017373590784E-05</v>
       </c>
       <c r="V323">
-        <v>1.000088619092984</v>
+        <v>8.86190929836328E-05</v>
       </c>
       <c r="W323">
-        <v>0.9996677740863786</v>
+        <v>-0.0003322259136213646</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24413,7 +24413,7 @@
         <v>0.8727433644323995</v>
       </c>
       <c r="K324">
-        <v>46.60240057488684</v>
+        <v>-0.03397599425113162</v>
       </c>
       <c r="L324">
         <v>0.004313179540931924</v>
@@ -24443,13 +24443,13 @@
         <v>0.07187500000003411</v>
       </c>
       <c r="U324">
-        <v>1.00001108033241</v>
+        <v>1.108033241004058E-05</v>
       </c>
       <c r="V324">
-        <v>1.000044305620168</v>
+        <v>4.430562016777273E-05</v>
       </c>
       <c r="W324">
-        <v>0.9996676636756399</v>
+        <v>-0.0003323363243601385</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24484,7 +24484,7 @@
         <v>0.7545462657415277</v>
       </c>
       <c r="K325">
-        <v>43.00520769810719</v>
+        <v>-0.0699479230189281</v>
       </c>
       <c r="L325">
         <v>0.003481715663146301</v>
@@ -24514,13 +24514,13 @@
         <v>0.02812500000001705</v>
       </c>
       <c r="U325">
-        <v>0.9999889197903623</v>
+        <v>-1.108020963769274E-05</v>
       </c>
       <c r="V325">
-        <v>1.000066455485901</v>
+        <v>6.645548590067385E-05</v>
       </c>
       <c r="W325">
-        <v>0.9993351063829787</v>
+        <v>-0.0006648936170212671</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24555,7 +24555,7 @@
         <v>0.7043409612298671</v>
       </c>
       <c r="K326">
-        <v>41.32629428336972</v>
+        <v>-0.08673705716630281</v>
       </c>
       <c r="L326">
         <v>0.002302402385824615</v>
@@ -24585,13 +24585,13 @@
         <v>-0.03437500000001137</v>
       </c>
       <c r="U326">
-        <v>0.99997783933518</v>
+        <v>-2.216066481997014E-05</v>
       </c>
       <c r="V326">
-        <v>1.00002215035662</v>
+        <v>2.215035662045395E-05</v>
       </c>
       <c r="W326">
-        <v>0.9996673320026612</v>
+        <v>-0.0003326679973387758</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24626,7 +24626,7 @@
         <v>0.7043409612298672</v>
       </c>
       <c r="K327">
-        <v>41.32629428336973</v>
+        <v>-0.08673705716630276</v>
       </c>
       <c r="L327">
         <v>0.0009791528894973105</v>
@@ -24656,13 +24656,13 @@
         <v>-0.08124999999998295</v>
       </c>
       <c r="U327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V327">
-        <v>0.9999778501340069</v>
+        <v>-2.21498659931374E-05</v>
       </c>
       <c r="W327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24697,7 +24697,7 @@
         <v>0.6138311897498028</v>
       </c>
       <c r="K328">
-        <v>38.03565042295204</v>
+        <v>-0.1196434957704796</v>
       </c>
       <c r="L328">
         <v>-0.0005925867033582391</v>
@@ -24727,13 +24727,13 @@
         <v>-0.1156249999999943</v>
       </c>
       <c r="U328">
-        <v>0.9999445971101854</v>
+        <v>-5.540288981464858E-05</v>
       </c>
       <c r="V328">
-        <v>0.999911398573517</v>
+        <v>-8.860142648303704E-05</v>
       </c>
       <c r="W328">
-        <v>0.9993344425956739</v>
+        <v>-0.0006655574043260559</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24768,7 +24768,7 @@
         <v>0.6814642317759541</v>
       </c>
       <c r="K329">
-        <v>40.52802425991512</v>
+        <v>-0.09471975740084881</v>
       </c>
       <c r="L329">
         <v>-0.002091570779946016</v>
@@ -24798,13 +24798,13 @@
         <v>-0.1437499999999829</v>
       </c>
       <c r="U329">
-        <v>0.9999556752324282</v>
+        <v>-4.43247675717684E-05</v>
       </c>
       <c r="V329">
-        <v>0.9998449337645651</v>
+        <v>-0.0001550662354349308</v>
       </c>
       <c r="W329">
-        <v>1.000333000333</v>
+        <v>0.0003330003330002107</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24839,7 +24839,7 @@
         <v>0.6814642317759539</v>
       </c>
       <c r="K330">
-        <v>40.52802425991512</v>
+        <v>-0.09471975740084881</v>
       </c>
       <c r="L330">
         <v>-0.003443408187529644</v>
@@ -24869,13 +24869,13 @@
         <v>-0.1593749999999829</v>
       </c>
       <c r="U330">
-        <v>0.9999556732676558</v>
+        <v>-4.432673234422424E-05</v>
       </c>
       <c r="V330">
-        <v>0.9998227539603414</v>
+        <v>-0.0001772460396586295</v>
       </c>
       <c r="W330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24910,7 +24910,7 @@
         <v>0.9812228667950348</v>
       </c>
       <c r="K331">
-        <v>49.52612264072692</v>
+        <v>-0.004738773592730727</v>
       </c>
       <c r="L331">
         <v>-0.004123380052047983</v>
@@ -24940,13 +24940,13 @@
         <v>-0.1531249999999886</v>
       </c>
       <c r="U331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V331">
-        <v>0.9998670419039597</v>
+        <v>-0.0001329580960403032</v>
       </c>
       <c r="W331">
-        <v>1.00133155792277</v>
+        <v>0.001331557922769733</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -24981,7 +24981,7 @@
         <v>0.9812228667950348</v>
       </c>
       <c r="K332">
-        <v>49.52612264072692</v>
+        <v>-0.004738773592730727</v>
       </c>
       <c r="L332">
         <v>-0.004337967929281776</v>
@@ -25011,13 +25011,13 @@
         <v>-0.1343750000000057</v>
       </c>
       <c r="U332">
-        <v>0.9999778356513548</v>
+        <v>-2.216434864521499E-05</v>
       </c>
       <c r="V332">
-        <v>0.9998891868531283</v>
+        <v>-0.0001108131468716689</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25052,7 +25052,7 @@
         <v>0.841477614153614</v>
       </c>
       <c r="K333">
-        <v>45.69578297808289</v>
+        <v>-0.04304217021917112</v>
       </c>
       <c r="L333">
         <v>-0.004483197181793184</v>
@@ -25082,13 +25082,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U333">
-        <v>0.9999667527401281</v>
+        <v>-3.324725987186028E-05</v>
       </c>
       <c r="V333">
-        <v>0.9998226793155424</v>
+        <v>-0.000177320684457638</v>
       </c>
       <c r="W333">
-        <v>0.9993351063829787</v>
+        <v>-0.0006648936170212671</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25123,7 +25123,7 @@
         <v>1.066350480832919</v>
       </c>
       <c r="K334">
-        <v>51.60549919891069</v>
+        <v>0.01605499198910687</v>
       </c>
       <c r="L334">
         <v>-0.004197708148144995</v>
@@ -25153,13 +25153,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U334">
-        <v>1.00001108278843</v>
+        <v>1.108278842965049E-05</v>
       </c>
       <c r="V334">
-        <v>0.9999334929502526</v>
+        <v>-6.650704974742183E-05</v>
       </c>
       <c r="W334">
-        <v>1.000998003992016</v>
+        <v>0.0009980039920158834</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25194,7 +25194,7 @@
         <v>0.8105362813465908</v>
       </c>
       <c r="K335">
-        <v>44.76774587161283</v>
+        <v>-0.0523225412838717</v>
       </c>
       <c r="L335">
         <v>-0.004138334776169969</v>
@@ -25224,13 +25224,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U335">
-        <v>0.9999667520031918</v>
+        <v>-3.324799680815005E-05</v>
       </c>
       <c r="V335">
-        <v>0.9998891475446182</v>
+        <v>-0.0001108524553817825</v>
       </c>
       <c r="W335">
-        <v>0.9986706547025591</v>
+        <v>-0.001329345297440887</v>
       </c>
     </row>
   </sheetData>
